--- a/data/互評名單_2025Q1問卷.xlsx
+++ b/data/互評名單_2025Q1問卷.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\問卷\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D9EFC6-5692-4587-BD3A-1746F01DCAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B2E4C3-7313-491A-93FD-FD21627856C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6286BA0D-CC4D-4D0C-B4B0-EF0035224D55}"/>
   </bookViews>
@@ -311,7 +311,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,6 +372,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -402,7 +408,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -475,8 +481,20 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -820,9 +838,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB614ABD-6518-45A3-AAD6-82A0B62C2D60}">
   <dimension ref="A1:V362"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A317" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H330" sqref="H330"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A308" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R318" sqref="R318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -918,7 +936,7 @@
       <c r="A2" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="20" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="12"/>
@@ -1440,21 +1458,13 @@
       <c r="A21" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="10">
-        <v>1</v>
-      </c>
-      <c r="D21" s="10">
-        <v>1</v>
-      </c>
-      <c r="E21" s="10">
-        <v>1</v>
-      </c>
-      <c r="F21" s="10">
-        <v>1</v>
-      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="9"/>
@@ -1575,9 +1585,7 @@
       <c r="B25" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="10">
-        <v>1</v>
-      </c>
+      <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -1797,12 +1805,8 @@
       <c r="B33" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="10">
-        <v>1</v>
-      </c>
-      <c r="D33" s="10">
-        <v>1</v>
-      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
@@ -1917,12 +1921,8 @@
       <c r="B37" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="10">
-        <v>1</v>
-      </c>
-      <c r="D37" s="10">
-        <v>1</v>
-      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
@@ -1999,594 +1999,566 @@
       <c r="T39" s="9"/>
       <c r="U39" s="9"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A40" s="20" t="s">
+    <row r="40" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="24" t="s">
         <v>42</v>
       </c>
       <c r="B40" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="13">
-        <v>1</v>
-      </c>
-      <c r="D40" s="13">
-        <v>1</v>
-      </c>
-      <c r="E40" s="13">
-        <v>1</v>
-      </c>
-      <c r="F40" s="13">
-        <v>1</v>
-      </c>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="9"/>
-      <c r="U40" s="9"/>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A41" s="20" t="s">
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="27"/>
+      <c r="U40" s="27"/>
+    </row>
+    <row r="41" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="13">
-        <v>1</v>
-      </c>
-      <c r="D41" s="13">
-        <v>1</v>
-      </c>
-      <c r="E41" s="13">
-        <v>1</v>
-      </c>
-      <c r="F41" s="13">
-        <v>1</v>
-      </c>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="9"/>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A42" s="20" t="s">
+      <c r="C41" s="25">
+        <v>1</v>
+      </c>
+      <c r="D41" s="25">
+        <v>1</v>
+      </c>
+      <c r="E41" s="25">
+        <v>1</v>
+      </c>
+      <c r="F41" s="25">
+        <v>1</v>
+      </c>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="27"/>
+      <c r="T41" s="27"/>
+      <c r="U41" s="27"/>
+    </row>
+    <row r="42" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="9"/>
-      <c r="R42" s="9"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="9"/>
-      <c r="U42" s="9"/>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A43" s="20" t="s">
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="27"/>
+      <c r="S42" s="27"/>
+      <c r="T42" s="27"/>
+      <c r="U42" s="27"/>
+    </row>
+    <row r="43" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="13">
-        <v>1</v>
-      </c>
-      <c r="D43" s="13">
-        <v>1</v>
-      </c>
-      <c r="E43" s="13">
-        <v>1</v>
-      </c>
-      <c r="F43" s="13">
-        <v>1</v>
-      </c>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="9"/>
-      <c r="U43" s="9"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A44" s="20" t="s">
+      <c r="C43" s="25">
+        <v>1</v>
+      </c>
+      <c r="D43" s="25">
+        <v>1</v>
+      </c>
+      <c r="E43" s="25">
+        <v>1</v>
+      </c>
+      <c r="F43" s="25">
+        <v>1</v>
+      </c>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27"/>
+      <c r="S43" s="27"/>
+      <c r="T43" s="27"/>
+      <c r="U43" s="27"/>
+    </row>
+    <row r="44" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="13">
-        <v>1</v>
-      </c>
-      <c r="D44" s="13">
-        <v>1</v>
-      </c>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="9"/>
-      <c r="S44" s="9"/>
-      <c r="T44" s="9"/>
-      <c r="U44" s="9"/>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A45" s="20" t="s">
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27"/>
+      <c r="S44" s="27"/>
+      <c r="T44" s="27"/>
+      <c r="U44" s="27"/>
+    </row>
+    <row r="45" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="13">
-        <v>1</v>
-      </c>
-      <c r="D45" s="13">
-        <v>1</v>
-      </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="9"/>
-      <c r="S45" s="9"/>
-      <c r="T45" s="9"/>
-      <c r="U45" s="9"/>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A46" s="20" t="s">
+      <c r="C45" s="25">
+        <v>1</v>
+      </c>
+      <c r="D45" s="25">
+        <v>1</v>
+      </c>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="27"/>
+      <c r="S45" s="27"/>
+      <c r="T45" s="27"/>
+      <c r="U45" s="27"/>
+    </row>
+    <row r="46" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="9"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="9"/>
-      <c r="U46" s="9"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A47" s="20" t="s">
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="27"/>
+      <c r="R46" s="27"/>
+      <c r="S46" s="27"/>
+      <c r="T46" s="27"/>
+      <c r="U46" s="27"/>
+    </row>
+    <row r="47" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="9"/>
-      <c r="S47" s="9"/>
-      <c r="T47" s="9"/>
-      <c r="U47" s="9"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A48" s="20" t="s">
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="27"/>
+      <c r="S47" s="27"/>
+      <c r="T47" s="27"/>
+      <c r="U47" s="27"/>
+    </row>
+    <row r="48" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="9"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="9"/>
-      <c r="U48" s="9"/>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A49" s="20" t="s">
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="27"/>
+      <c r="Q48" s="27"/>
+      <c r="R48" s="27"/>
+      <c r="S48" s="27"/>
+      <c r="T48" s="27"/>
+      <c r="U48" s="27"/>
+    </row>
+    <row r="49" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="9"/>
-      <c r="R49" s="9"/>
-      <c r="S49" s="9"/>
-      <c r="T49" s="9"/>
-      <c r="U49" s="9"/>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A50" s="20" t="s">
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="27"/>
+      <c r="T49" s="27"/>
+      <c r="U49" s="27"/>
+    </row>
+    <row r="50" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="9"/>
-      <c r="S50" s="9"/>
-      <c r="T50" s="9"/>
-      <c r="U50" s="9"/>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A51" s="20" t="s">
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="27"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="27"/>
+      <c r="R50" s="27"/>
+      <c r="S50" s="27"/>
+      <c r="T50" s="27"/>
+      <c r="U50" s="27"/>
+    </row>
+    <row r="51" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="13">
-        <v>1</v>
-      </c>
-      <c r="D51" s="13">
-        <v>1</v>
-      </c>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="9"/>
-      <c r="U51" s="9"/>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A52" s="20" t="s">
+      <c r="C51" s="25">
+        <v>1</v>
+      </c>
+      <c r="D51" s="25">
+        <v>1</v>
+      </c>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="27"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="27"/>
+      <c r="R51" s="27"/>
+      <c r="S51" s="27"/>
+      <c r="T51" s="27"/>
+      <c r="U51" s="27"/>
+    </row>
+    <row r="52" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="13">
-        <v>1</v>
-      </c>
-      <c r="D52" s="13">
-        <v>1</v>
-      </c>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="9"/>
-      <c r="S52" s="9"/>
-      <c r="T52" s="9"/>
-      <c r="U52" s="9"/>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A53" s="20" t="s">
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="27"/>
+      <c r="P52" s="27"/>
+      <c r="Q52" s="27"/>
+      <c r="R52" s="27"/>
+      <c r="S52" s="27"/>
+      <c r="T52" s="27"/>
+      <c r="U52" s="27"/>
+    </row>
+    <row r="53" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="9"/>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="9"/>
-      <c r="R53" s="9"/>
-      <c r="S53" s="9"/>
-      <c r="T53" s="9"/>
-      <c r="U53" s="9"/>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A54" s="20" t="s">
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="27"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="27"/>
+      <c r="R53" s="27"/>
+      <c r="S53" s="27"/>
+      <c r="T53" s="27"/>
+      <c r="U53" s="27"/>
+    </row>
+    <row r="54" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="13">
-        <v>1</v>
-      </c>
-      <c r="D54" s="13">
-        <v>1</v>
-      </c>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
-      <c r="O54" s="9"/>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="9"/>
-      <c r="R54" s="9"/>
-      <c r="S54" s="9"/>
-      <c r="T54" s="9"/>
-      <c r="U54" s="9"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A55" s="20" t="s">
+      <c r="C54" s="25">
+        <v>1</v>
+      </c>
+      <c r="D54" s="25">
+        <v>1</v>
+      </c>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="27"/>
+      <c r="P54" s="27"/>
+      <c r="Q54" s="27"/>
+      <c r="R54" s="27"/>
+      <c r="S54" s="27"/>
+      <c r="T54" s="27"/>
+      <c r="U54" s="27"/>
+    </row>
+    <row r="55" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="13">
-        <v>1</v>
-      </c>
-      <c r="D55" s="13">
-        <v>1</v>
-      </c>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9"/>
-      <c r="M55" s="9"/>
-      <c r="N55" s="9"/>
-      <c r="O55" s="9"/>
-      <c r="P55" s="9"/>
-      <c r="Q55" s="9"/>
-      <c r="R55" s="9"/>
-      <c r="S55" s="9"/>
-      <c r="T55" s="9"/>
-      <c r="U55" s="9"/>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A56" s="20" t="s">
+      <c r="C55" s="25">
+        <v>1</v>
+      </c>
+      <c r="D55" s="25">
+        <v>1</v>
+      </c>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="27"/>
+      <c r="M55" s="27"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="27"/>
+      <c r="P55" s="27"/>
+      <c r="Q55" s="27"/>
+      <c r="R55" s="27"/>
+      <c r="S55" s="27"/>
+      <c r="T55" s="27"/>
+      <c r="U55" s="27"/>
+    </row>
+    <row r="56" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C56" s="13">
-        <v>1</v>
-      </c>
-      <c r="D56" s="13">
-        <v>1</v>
-      </c>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9"/>
-      <c r="M56" s="9"/>
-      <c r="N56" s="9"/>
-      <c r="O56" s="9"/>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="9"/>
-      <c r="R56" s="9"/>
-      <c r="S56" s="9"/>
-      <c r="T56" s="9"/>
-      <c r="U56" s="9"/>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A57" s="20" t="s">
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="27"/>
+      <c r="M56" s="27"/>
+      <c r="N56" s="27"/>
+      <c r="O56" s="27"/>
+      <c r="P56" s="27"/>
+      <c r="Q56" s="27"/>
+      <c r="R56" s="27"/>
+      <c r="S56" s="27"/>
+      <c r="T56" s="27"/>
+      <c r="U56" s="27"/>
+    </row>
+    <row r="57" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="13">
-        <v>1</v>
-      </c>
-      <c r="D57" s="13">
-        <v>1</v>
-      </c>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
-      <c r="L57" s="9"/>
-      <c r="M57" s="9"/>
-      <c r="N57" s="9"/>
-      <c r="O57" s="9"/>
-      <c r="P57" s="9"/>
-      <c r="Q57" s="9"/>
-      <c r="R57" s="9"/>
-      <c r="S57" s="9"/>
-      <c r="T57" s="9"/>
-      <c r="U57" s="9"/>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A58" s="20" t="s">
+      <c r="C57" s="25">
+        <v>1</v>
+      </c>
+      <c r="D57" s="25">
+        <v>1</v>
+      </c>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="27"/>
+      <c r="N57" s="27"/>
+      <c r="O57" s="27"/>
+      <c r="P57" s="27"/>
+      <c r="Q57" s="27"/>
+      <c r="R57" s="27"/>
+      <c r="S57" s="27"/>
+      <c r="T57" s="27"/>
+      <c r="U57" s="27"/>
+    </row>
+    <row r="58" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
-      <c r="M58" s="9"/>
-      <c r="N58" s="9"/>
-      <c r="O58" s="9"/>
-      <c r="P58" s="9"/>
-      <c r="Q58" s="9"/>
-      <c r="R58" s="9"/>
-      <c r="S58" s="9"/>
-      <c r="T58" s="9"/>
-      <c r="U58" s="9"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="27"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="27"/>
+      <c r="P58" s="27"/>
+      <c r="Q58" s="27"/>
+      <c r="R58" s="27"/>
+      <c r="S58" s="27"/>
+      <c r="T58" s="27"/>
+      <c r="U58" s="27"/>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B59" s="24" t="s">
+      <c r="B59" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C59" s="10">
-        <v>1</v>
-      </c>
-      <c r="D59" s="10">
-        <v>1</v>
-      </c>
-      <c r="E59" s="10">
-        <v>1</v>
-      </c>
-      <c r="F59" s="10">
-        <v>1</v>
-      </c>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
       <c r="I59" s="9"/>
@@ -2927,12 +2899,8 @@
       <c r="B71" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C71" s="10">
-        <v>1</v>
-      </c>
-      <c r="D71" s="10">
-        <v>1</v>
-      </c>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
       <c r="E71" s="10"/>
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
@@ -3047,12 +3015,8 @@
       <c r="B75" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="10">
-        <v>1</v>
-      </c>
-      <c r="D75" s="10">
-        <v>1</v>
-      </c>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
       <c r="E75" s="10"/>
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>
@@ -3133,7 +3097,7 @@
       <c r="A78" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B78" s="24" t="s">
+      <c r="B78" s="20" t="s">
         <v>40</v>
       </c>
       <c r="C78" s="9"/>
@@ -3655,7 +3619,7 @@
       <c r="A97" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B97" s="24" t="s">
+      <c r="B97" s="20" t="s">
         <v>40</v>
       </c>
       <c r="C97" s="9"/>
@@ -3663,9 +3627,7 @@
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
       <c r="G97" s="10"/>
-      <c r="H97" s="10">
-        <v>1</v>
-      </c>
+      <c r="H97" s="10"/>
       <c r="I97" s="10"/>
       <c r="J97" s="9"/>
       <c r="K97" s="10"/>
@@ -3778,19 +3740,11 @@
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
       <c r="F101" s="9"/>
-      <c r="G101" s="10">
-        <v>1</v>
-      </c>
-      <c r="H101" s="10">
-        <v>1</v>
-      </c>
-      <c r="I101" s="10">
-        <v>1</v>
-      </c>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
+      <c r="I101" s="10"/>
       <c r="J101" s="9"/>
-      <c r="K101" s="10">
-        <v>1</v>
-      </c>
+      <c r="K101" s="10"/>
       <c r="L101" s="10"/>
       <c r="M101" s="9"/>
       <c r="N101" s="9"/>
@@ -4038,18 +3992,12 @@
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
-      <c r="G109" s="10">
-        <v>1</v>
-      </c>
-      <c r="H109" s="10">
-        <v>1</v>
-      </c>
+      <c r="G109" s="10"/>
+      <c r="H109" s="10"/>
       <c r="I109" s="10"/>
       <c r="J109" s="9"/>
       <c r="K109" s="10"/>
-      <c r="L109" s="10">
-        <v>1</v>
-      </c>
+      <c r="L109" s="10"/>
       <c r="M109" s="9"/>
       <c r="N109" s="9"/>
       <c r="O109" s="9"/>
@@ -4166,9 +4114,7 @@
       <c r="F113" s="9"/>
       <c r="G113" s="10"/>
       <c r="H113" s="10"/>
-      <c r="I113" s="10">
-        <v>1</v>
-      </c>
+      <c r="I113" s="10"/>
       <c r="J113" s="9"/>
       <c r="K113" s="10"/>
       <c r="L113" s="10"/>
@@ -4244,7 +4190,7 @@
       <c r="A116" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B116" s="24" t="s">
+      <c r="B116" s="20" t="s">
         <v>40</v>
       </c>
       <c r="C116" s="10"/>
@@ -4359,16 +4305,10 @@
       <c r="D120" s="10"/>
       <c r="E120" s="10"/>
       <c r="F120" s="10"/>
-      <c r="G120" s="10">
-        <v>1</v>
-      </c>
-      <c r="H120" s="10">
-        <v>1</v>
-      </c>
+      <c r="G120" s="10"/>
+      <c r="H120" s="10"/>
       <c r="I120" s="9"/>
-      <c r="J120" s="10">
-        <v>1</v>
-      </c>
+      <c r="J120" s="10"/>
       <c r="K120" s="9"/>
       <c r="L120" s="10"/>
       <c r="M120" s="9"/>
@@ -4611,18 +4551,12 @@
       <c r="D128" s="10"/>
       <c r="E128" s="10"/>
       <c r="F128" s="10"/>
-      <c r="G128" s="10">
-        <v>1</v>
-      </c>
-      <c r="H128" s="10">
-        <v>1</v>
-      </c>
+      <c r="G128" s="10"/>
+      <c r="H128" s="10"/>
       <c r="I128" s="9"/>
       <c r="J128" s="10"/>
       <c r="K128" s="9"/>
-      <c r="L128" s="10">
-        <v>1</v>
-      </c>
+      <c r="L128" s="10"/>
       <c r="M128" s="9"/>
       <c r="N128" s="9"/>
       <c r="O128" s="9"/>
@@ -4809,7 +4743,7 @@
       <c r="A135" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B135" s="24" t="s">
+      <c r="B135" s="20" t="s">
         <v>40</v>
       </c>
       <c r="C135" s="9"/>
@@ -4924,12 +4858,8 @@
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
       <c r="F139" s="10"/>
-      <c r="G139" s="10">
-        <v>1</v>
-      </c>
-      <c r="H139" s="10">
-        <v>1</v>
-      </c>
+      <c r="G139" s="10"/>
+      <c r="H139" s="10"/>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
       <c r="K139" s="9"/>
@@ -5174,18 +5104,12 @@
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>
       <c r="F147" s="10"/>
-      <c r="G147" s="10">
-        <v>1</v>
-      </c>
-      <c r="H147" s="10">
-        <v>1</v>
-      </c>
+      <c r="G147" s="10"/>
+      <c r="H147" s="10"/>
       <c r="I147" s="9"/>
       <c r="J147" s="9"/>
       <c r="K147" s="9"/>
-      <c r="L147" s="10">
-        <v>1</v>
-      </c>
+      <c r="L147" s="10"/>
       <c r="M147" s="9"/>
       <c r="N147" s="9"/>
       <c r="O147" s="9"/>
@@ -5368,7 +5292,7 @@
       <c r="A154" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B154" s="24" t="s">
+      <c r="B154" s="20" t="s">
         <v>40</v>
       </c>
       <c r="C154" s="9"/>
@@ -5483,12 +5407,8 @@
       <c r="D158" s="9"/>
       <c r="E158" s="9"/>
       <c r="F158" s="10"/>
-      <c r="G158" s="10">
-        <v>1</v>
-      </c>
-      <c r="H158" s="10">
-        <v>1</v>
-      </c>
+      <c r="G158" s="10"/>
+      <c r="H158" s="10"/>
       <c r="I158" s="9"/>
       <c r="J158" s="9"/>
       <c r="K158" s="9"/>
@@ -5733,18 +5653,12 @@
       <c r="D166" s="9"/>
       <c r="E166" s="9"/>
       <c r="F166" s="10"/>
-      <c r="G166" s="10">
-        <v>1</v>
-      </c>
-      <c r="H166" s="10">
-        <v>1</v>
-      </c>
+      <c r="G166" s="10"/>
+      <c r="H166" s="10"/>
       <c r="I166" s="9"/>
       <c r="J166" s="9"/>
       <c r="K166" s="9"/>
-      <c r="L166" s="10">
-        <v>1</v>
-      </c>
+      <c r="L166" s="10"/>
       <c r="M166" s="9"/>
       <c r="N166" s="9"/>
       <c r="O166" s="9"/>
@@ -5931,7 +5845,7 @@
       <c r="A173" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B173" s="24" t="s">
+      <c r="B173" s="20" t="s">
         <v>40</v>
       </c>
       <c r="C173" s="10"/>
@@ -6046,15 +5960,9 @@
       <c r="D177" s="10"/>
       <c r="E177" s="10"/>
       <c r="F177" s="10"/>
-      <c r="G177" s="10">
-        <v>1</v>
-      </c>
-      <c r="H177" s="10">
-        <v>1</v>
-      </c>
-      <c r="I177" s="10">
-        <v>1</v>
-      </c>
+      <c r="G177" s="10"/>
+      <c r="H177" s="10"/>
+      <c r="I177" s="10"/>
       <c r="J177" s="9"/>
       <c r="K177" s="9"/>
       <c r="L177" s="9"/>
@@ -6298,12 +6206,8 @@
       <c r="D185" s="10"/>
       <c r="E185" s="10"/>
       <c r="F185" s="10"/>
-      <c r="G185" s="10">
-        <v>1</v>
-      </c>
-      <c r="H185" s="10">
-        <v>1</v>
-      </c>
+      <c r="G185" s="10"/>
+      <c r="H185" s="10"/>
       <c r="I185" s="10"/>
       <c r="J185" s="9"/>
       <c r="K185" s="9"/>
@@ -6492,7 +6396,7 @@
       <c r="A192" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B192" s="24" t="s">
+      <c r="B192" s="20" t="s">
         <v>40</v>
       </c>
       <c r="C192" s="9"/>
@@ -6607,15 +6511,9 @@
       <c r="D196" s="9"/>
       <c r="E196" s="9"/>
       <c r="F196" s="10"/>
-      <c r="G196" s="10">
-        <v>1</v>
-      </c>
-      <c r="H196" s="10">
-        <v>1</v>
-      </c>
-      <c r="I196" s="10">
-        <v>1</v>
-      </c>
+      <c r="G196" s="10"/>
+      <c r="H196" s="10"/>
+      <c r="I196" s="10"/>
       <c r="J196" s="13"/>
       <c r="K196" s="13"/>
       <c r="L196" s="9"/>
@@ -6859,12 +6757,8 @@
       <c r="D204" s="9"/>
       <c r="E204" s="9"/>
       <c r="F204" s="10"/>
-      <c r="G204" s="10">
-        <v>1</v>
-      </c>
-      <c r="H204" s="10">
-        <v>1</v>
-      </c>
+      <c r="G204" s="10"/>
+      <c r="H204" s="10"/>
       <c r="I204" s="10"/>
       <c r="J204" s="13"/>
       <c r="K204" s="13"/>
@@ -6981,9 +6875,7 @@
       <c r="F208" s="10"/>
       <c r="G208" s="10"/>
       <c r="H208" s="10"/>
-      <c r="I208" s="10">
-        <v>1</v>
-      </c>
+      <c r="I208" s="10"/>
       <c r="J208" s="13"/>
       <c r="K208" s="13"/>
       <c r="L208" s="9"/>
@@ -7055,7 +6947,7 @@
       <c r="A211" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B211" s="24" t="s">
+      <c r="B211" s="20" t="s">
         <v>40</v>
       </c>
       <c r="C211" s="9"/>
@@ -7420,12 +7312,8 @@
       <c r="D223" s="9"/>
       <c r="E223" s="9"/>
       <c r="F223" s="10"/>
-      <c r="G223" s="10">
-        <v>1</v>
-      </c>
-      <c r="H223" s="10">
-        <v>1</v>
-      </c>
+      <c r="G223" s="10"/>
+      <c r="H223" s="10"/>
       <c r="I223" s="10"/>
       <c r="J223" s="9"/>
       <c r="K223" s="9"/>
@@ -7542,9 +7430,7 @@
       <c r="F227" s="10"/>
       <c r="G227" s="10"/>
       <c r="H227" s="10"/>
-      <c r="I227" s="10">
-        <v>1</v>
-      </c>
+      <c r="I227" s="10"/>
       <c r="J227" s="9"/>
       <c r="K227" s="9"/>
       <c r="L227" s="9"/>
@@ -7620,7 +7506,7 @@
       <c r="A230" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B230" s="24" t="s">
+      <c r="B230" s="20" t="s">
         <v>40</v>
       </c>
       <c r="C230" s="10"/>
@@ -8142,7 +8028,7 @@
       <c r="A249" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B249" s="24" t="s">
+      <c r="B249" s="20" t="s">
         <v>40</v>
       </c>
       <c r="C249" s="10"/>
@@ -8253,29 +8139,17 @@
       <c r="B253" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C253" s="10">
-        <v>1</v>
-      </c>
-      <c r="D253" s="10">
-        <v>1</v>
-      </c>
+      <c r="C253" s="10"/>
+      <c r="D253" s="10"/>
       <c r="E253" s="10"/>
       <c r="F253" s="10"/>
-      <c r="G253" s="10">
-        <v>1</v>
-      </c>
+      <c r="G253" s="10"/>
       <c r="H253" s="10"/>
       <c r="I253" s="9"/>
-      <c r="J253" s="10">
-        <v>1</v>
-      </c>
-      <c r="K253" s="10">
-        <v>1</v>
-      </c>
+      <c r="J253" s="10"/>
+      <c r="K253" s="10"/>
       <c r="L253" s="9"/>
-      <c r="M253" s="10">
-        <v>1</v>
-      </c>
+      <c r="M253" s="10"/>
       <c r="N253" s="9"/>
       <c r="O253" s="9"/>
       <c r="P253" s="9"/>
@@ -8487,29 +8361,17 @@
       <c r="B261" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C261" s="10">
-        <v>1</v>
-      </c>
-      <c r="D261" s="10">
-        <v>1</v>
-      </c>
+      <c r="C261" s="10"/>
+      <c r="D261" s="10"/>
       <c r="E261" s="10"/>
       <c r="F261" s="10"/>
-      <c r="G261" s="10">
-        <v>1</v>
-      </c>
+      <c r="G261" s="10"/>
       <c r="H261" s="10"/>
       <c r="I261" s="9"/>
-      <c r="J261" s="10">
-        <v>1</v>
-      </c>
-      <c r="K261" s="10">
-        <v>1</v>
-      </c>
+      <c r="J261" s="10"/>
+      <c r="K261" s="10"/>
       <c r="L261" s="9"/>
-      <c r="M261" s="10">
-        <v>1</v>
-      </c>
+      <c r="M261" s="10"/>
       <c r="N261" s="9"/>
       <c r="O261" s="9"/>
       <c r="P261" s="9"/>
@@ -8614,9 +8476,7 @@
         <v>35</v>
       </c>
       <c r="C265" s="10"/>
-      <c r="D265" s="10">
-        <v>1</v>
-      </c>
+      <c r="D265" s="10"/>
       <c r="E265" s="10"/>
       <c r="F265" s="10"/>
       <c r="G265" s="10"/>
@@ -8695,7 +8555,7 @@
       <c r="A268" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B268" s="24" t="s">
+      <c r="B268" s="20" t="s">
         <v>40</v>
       </c>
       <c r="C268" s="10"/>
@@ -8709,12 +8569,8 @@
       <c r="K268" s="9"/>
       <c r="L268" s="9"/>
       <c r="M268" s="10"/>
-      <c r="N268" s="10">
-        <v>1</v>
-      </c>
-      <c r="O268" s="10">
-        <v>1</v>
-      </c>
+      <c r="N268" s="10"/>
+      <c r="O268" s="10"/>
       <c r="P268" s="9"/>
       <c r="Q268" s="9"/>
       <c r="R268" s="9"/>
@@ -8826,21 +8682,15 @@
       <c r="D272" s="10"/>
       <c r="E272" s="10"/>
       <c r="F272" s="10"/>
-      <c r="G272" s="10">
-        <v>1</v>
-      </c>
+      <c r="G272" s="10"/>
       <c r="H272" s="10"/>
       <c r="I272" s="9"/>
       <c r="J272" s="9"/>
       <c r="K272" s="9"/>
       <c r="L272" s="9"/>
       <c r="M272" s="10"/>
-      <c r="N272" s="10">
-        <v>1</v>
-      </c>
-      <c r="O272" s="10">
-        <v>1</v>
-      </c>
+      <c r="N272" s="10"/>
+      <c r="O272" s="10"/>
       <c r="P272" s="9"/>
       <c r="Q272" s="9"/>
       <c r="R272" s="9"/>
@@ -9058,23 +8908,15 @@
       <c r="D280" s="10"/>
       <c r="E280" s="10"/>
       <c r="F280" s="10"/>
-      <c r="G280" s="10">
-        <v>1</v>
-      </c>
+      <c r="G280" s="10"/>
       <c r="H280" s="10"/>
       <c r="I280" s="9"/>
       <c r="J280" s="9"/>
       <c r="K280" s="9"/>
       <c r="L280" s="9"/>
-      <c r="M280" s="10">
-        <v>1</v>
-      </c>
-      <c r="N280" s="10">
-        <v>1</v>
-      </c>
-      <c r="O280" s="10">
-        <v>1</v>
-      </c>
+      <c r="M280" s="10"/>
+      <c r="N280" s="10"/>
+      <c r="O280" s="10"/>
       <c r="P280" s="9"/>
       <c r="Q280" s="9"/>
       <c r="R280" s="9"/>
@@ -9191,12 +9033,8 @@
       <c r="K284" s="9"/>
       <c r="L284" s="9"/>
       <c r="M284" s="10"/>
-      <c r="N284" s="10">
-        <v>1</v>
-      </c>
-      <c r="O284" s="10">
-        <v>1</v>
-      </c>
+      <c r="N284" s="10"/>
+      <c r="O284" s="10"/>
       <c r="P284" s="9"/>
       <c r="Q284" s="9"/>
       <c r="R284" s="9"/>
@@ -9262,7 +9100,7 @@
       <c r="A287" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B287" s="24" t="s">
+      <c r="B287" s="20" t="s">
         <v>40</v>
       </c>
       <c r="C287" s="9"/>
@@ -9278,15 +9116,9 @@
       <c r="M287" s="9"/>
       <c r="N287" s="9"/>
       <c r="O287" s="9"/>
-      <c r="P287" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q287" s="10">
-        <v>1</v>
-      </c>
-      <c r="R287" s="10">
-        <v>1</v>
-      </c>
+      <c r="P287" s="10"/>
+      <c r="Q287" s="10"/>
+      <c r="R287" s="10"/>
       <c r="S287" s="9"/>
       <c r="T287" s="9"/>
       <c r="U287" s="9"/>
@@ -9406,18 +9238,12 @@
       <c r="I291" s="9"/>
       <c r="J291" s="9"/>
       <c r="K291" s="9"/>
-      <c r="L291" s="10">
-        <v>1</v>
-      </c>
+      <c r="L291" s="10"/>
       <c r="M291" s="9"/>
       <c r="N291" s="9"/>
       <c r="O291" s="9"/>
-      <c r="P291" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q291" s="10">
-        <v>1</v>
-      </c>
+      <c r="P291" s="10"/>
+      <c r="Q291" s="10"/>
       <c r="R291" s="10"/>
       <c r="S291" s="9"/>
       <c r="T291" s="9"/>
@@ -9660,21 +9486,13 @@
       <c r="I299" s="9"/>
       <c r="J299" s="9"/>
       <c r="K299" s="9"/>
-      <c r="L299" s="10">
-        <v>1</v>
-      </c>
+      <c r="L299" s="10"/>
       <c r="M299" s="9"/>
       <c r="N299" s="9"/>
       <c r="O299" s="9"/>
-      <c r="P299" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q299" s="10">
-        <v>1</v>
-      </c>
-      <c r="R299" s="10">
-        <v>1</v>
-      </c>
+      <c r="P299" s="10"/>
+      <c r="Q299" s="10"/>
+      <c r="R299" s="10"/>
       <c r="S299" s="9"/>
       <c r="T299" s="9"/>
       <c r="U299" s="9"/>
@@ -9792,15 +9610,9 @@
       <c r="M303" s="9"/>
       <c r="N303" s="9"/>
       <c r="O303" s="9"/>
-      <c r="P303" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q303" s="10">
-        <v>1</v>
-      </c>
-      <c r="R303" s="10">
-        <v>1</v>
-      </c>
+      <c r="P303" s="10"/>
+      <c r="Q303" s="10"/>
+      <c r="R303" s="10"/>
       <c r="S303" s="9"/>
       <c r="T303" s="9"/>
       <c r="U303" s="9"/>
@@ -9863,7 +9675,7 @@
       <c r="A306" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B306" s="24" t="s">
+      <c r="B306" s="20" t="s">
         <v>40</v>
       </c>
       <c r="C306" s="10"/>
@@ -10385,13 +10197,11 @@
       <c r="A325" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B325" s="24" t="s">
+      <c r="B325" s="20" t="s">
         <v>40</v>
       </c>
       <c r="C325" s="9"/>
-      <c r="D325" s="10">
-        <v>1</v>
-      </c>
+      <c r="D325" s="10"/>
       <c r="E325" s="9"/>
       <c r="F325" s="10"/>
       <c r="G325" s="10"/>
@@ -10407,9 +10217,7 @@
       <c r="Q325" s="9"/>
       <c r="R325" s="9"/>
       <c r="S325" s="9"/>
-      <c r="T325" s="10">
-        <v>1</v>
-      </c>
+      <c r="T325" s="10"/>
       <c r="U325" s="10"/>
     </row>
     <row r="326" spans="1:21" x14ac:dyDescent="0.3">
@@ -10532,9 +10340,7 @@
       <c r="R329" s="9"/>
       <c r="S329" s="9"/>
       <c r="T329" s="10"/>
-      <c r="U329" s="10">
-        <v>1</v>
-      </c>
+      <c r="U329" s="10"/>
     </row>
     <row r="330" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A330" s="8" t="s">
@@ -10843,13 +10649,9 @@
         <v>35</v>
       </c>
       <c r="C341" s="9"/>
-      <c r="D341" s="10">
-        <v>1</v>
-      </c>
+      <c r="D341" s="10"/>
       <c r="E341" s="9"/>
-      <c r="F341" s="10">
-        <v>1</v>
-      </c>
+      <c r="F341" s="10"/>
       <c r="G341" s="10"/>
       <c r="H341" s="10"/>
       <c r="I341" s="9"/>
@@ -10863,12 +10665,8 @@
       <c r="Q341" s="9"/>
       <c r="R341" s="9"/>
       <c r="S341" s="9"/>
-      <c r="T341" s="10">
-        <v>1</v>
-      </c>
-      <c r="U341" s="10">
-        <v>1</v>
-      </c>
+      <c r="T341" s="10"/>
+      <c r="U341" s="10"/>
     </row>
     <row r="342" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A342" s="8" t="s">
@@ -10936,13 +10734,11 @@
       <c r="A344" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B344" s="24" t="s">
+      <c r="B344" s="20" t="s">
         <v>40</v>
       </c>
       <c r="C344" s="9"/>
-      <c r="D344" s="10">
-        <v>1</v>
-      </c>
+      <c r="D344" s="10"/>
       <c r="E344" s="9"/>
       <c r="F344" s="10"/>
       <c r="G344" s="10"/>
@@ -10958,9 +10754,7 @@
       <c r="Q344" s="9"/>
       <c r="R344" s="9"/>
       <c r="S344" s="9"/>
-      <c r="T344" s="10">
-        <v>1</v>
-      </c>
+      <c r="T344" s="10"/>
       <c r="U344" s="10"/>
     </row>
     <row r="345" spans="1:21" x14ac:dyDescent="0.3">
@@ -11390,13 +11184,9 @@
         <v>35</v>
       </c>
       <c r="C360" s="9"/>
-      <c r="D360" s="10">
-        <v>1</v>
-      </c>
+      <c r="D360" s="10"/>
       <c r="E360" s="9"/>
-      <c r="F360" s="10">
-        <v>1</v>
-      </c>
+      <c r="F360" s="10"/>
       <c r="G360" s="10"/>
       <c r="H360" s="10"/>
       <c r="I360" s="9"/>
@@ -11410,12 +11200,8 @@
       <c r="Q360" s="9"/>
       <c r="R360" s="9"/>
       <c r="S360" s="9"/>
-      <c r="T360" s="10">
-        <v>1</v>
-      </c>
-      <c r="U360" s="10">
-        <v>1</v>
-      </c>
+      <c r="T360" s="10"/>
+      <c r="U360" s="10"/>
     </row>
     <row r="361" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A361" s="22" t="s">

--- a/data/互評名單_2025Q1問卷.xlsx
+++ b/data/互評名單_2025Q1問卷.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\問卷\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B2E4C3-7313-491A-93FD-FD21627856C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662381E5-258E-4744-8255-4F4CDEB05CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6286BA0D-CC4D-4D0C-B4B0-EF0035224D55}"/>
   </bookViews>
@@ -91,16 +91,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>HBR數據分析 - 
-南京組裝站&amp;強光站分析</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HBR數據分析 - 
-BI Tool Tableau導入</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>吳江廠區 HBR擴展</t>
   </si>
   <si>
@@ -108,9 +98,6 @@
   </si>
   <si>
     <t>南京廠區 HBR擴展</t>
-  </si>
-  <si>
-    <t>HBR優化 - 模型健康度研究</t>
   </si>
   <si>
     <t>填答者</t>
@@ -246,6 +233,18 @@
   </si>
   <si>
     <t>蔡碧芬 Belle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HBR優化_模型健康度研究</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HBR數據分析_南京組裝站&amp;強光站分析</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HBR數據分析_BI Tool Tableau導入</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -442,9 +441,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -495,6 +491,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -838,15 +837,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB614ABD-6518-45A3-AAD6-82A0B62C2D60}">
   <dimension ref="A1:V362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A308" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R318" sqref="R318"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" style="20" customWidth="1"/>
     <col min="3" max="5" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -865,11 +864,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>19</v>
+      <c r="A1" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>6</v>
@@ -889,7 +888,7 @@
       <c r="H1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="10" t="s">
@@ -905,13 +904,13 @@
         <v>5</v>
       </c>
       <c r="N1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="Q1" s="10" t="s">
         <v>11</v>
@@ -919,30 +918,30 @@
       <c r="R1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="U1" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" s="18" t="s">
-        <v>20</v>
+      <c r="S1" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="U1" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="A2" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="9"/>
@@ -960,11 +959,11 @@
       <c r="U2" s="9"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>41</v>
+      <c r="A3" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -987,11 +986,11 @@
       <c r="U3" s="9"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>42</v>
+      <c r="A4" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -1014,11 +1013,11 @@
       <c r="U4" s="9"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>44</v>
+      <c r="A5" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -1041,11 +1040,11 @@
       <c r="U5" s="9"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>46</v>
+      <c r="A6" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -1071,11 +1070,11 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>48</v>
+      <c r="A7" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1098,11 +1097,11 @@
       <c r="U7" s="9"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>50</v>
+      <c r="A8" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -1125,11 +1124,11 @@
       <c r="U8" s="9"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>52</v>
+      <c r="A9" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -1152,11 +1151,11 @@
       <c r="U9" s="9"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>54</v>
+      <c r="A10" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -1179,11 +1178,11 @@
       <c r="U10" s="9"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>22</v>
+      <c r="A11" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -1206,11 +1205,11 @@
       <c r="U11" s="9"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>23</v>
+      <c r="A12" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -1233,11 +1232,11 @@
       <c r="U12" s="9"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>25</v>
+      <c r="A13" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -1260,11 +1259,11 @@
       <c r="U13" s="9"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>27</v>
+      <c r="A14" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -1290,11 +1289,11 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>29</v>
+      <c r="A15" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -1317,11 +1316,11 @@
       <c r="U15" s="9"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>31</v>
+      <c r="A16" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -1344,11 +1343,11 @@
       <c r="U16" s="9"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>33</v>
+      <c r="A17" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -1371,11 +1370,11 @@
       <c r="U17" s="9"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>35</v>
+      <c r="A18" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -1401,11 +1400,11 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="20" t="s">
+      <c r="A19" s="18" t="s">
         <v>37</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -1428,11 +1427,11 @@
       <c r="U19" s="9"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>39</v>
+      <c r="A20" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -1455,11 +1454,11 @@
       <c r="U20" s="9"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>40</v>
+      <c r="A21" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -1482,16 +1481,16 @@
       <c r="U21" s="9"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
+      <c r="A22" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="9"/>
@@ -1509,11 +1508,11 @@
       <c r="U22" s="9"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>42</v>
+      <c r="A23" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="C23" s="10">
         <v>1</v>
@@ -1544,11 +1543,11 @@
       <c r="U23" s="9"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>41</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>44</v>
       </c>
       <c r="C24" s="10">
         <v>1</v>
@@ -1579,11 +1578,11 @@
       <c r="U24" s="9"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>46</v>
+      <c r="A25" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -1606,11 +1605,11 @@
       <c r="U25" s="9"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A26" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>48</v>
+      <c r="A26" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="C26" s="10">
         <v>1</v>
@@ -1635,11 +1634,11 @@
       <c r="U26" s="9"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A27" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>50</v>
+      <c r="A27" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -1662,11 +1661,11 @@
       <c r="U27" s="9"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A28" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>52</v>
+      <c r="A28" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -1689,11 +1688,11 @@
       <c r="U28" s="9"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>54</v>
+      <c r="A29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -1716,11 +1715,11 @@
       <c r="U29" s="9"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A30" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>22</v>
+      <c r="A30" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -1743,11 +1742,11 @@
       <c r="U30" s="9"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A31" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>23</v>
+      <c r="A31" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -1770,11 +1769,11 @@
       <c r="U31" s="9"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A32" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>25</v>
+      <c r="A32" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="C32" s="10">
         <v>1</v>
@@ -1799,11 +1798,11 @@
       <c r="U32" s="9"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A33" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>27</v>
+      <c r="A33" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -1826,11 +1825,11 @@
       <c r="U33" s="9"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A34" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>29</v>
+      <c r="A34" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -1853,11 +1852,11 @@
       <c r="U34" s="9"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A35" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>31</v>
+      <c r="A35" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="C35" s="10">
         <v>1</v>
@@ -1884,11 +1883,11 @@
       <c r="U35" s="9"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A36" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>33</v>
+      <c r="A36" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="C36" s="10">
         <v>1</v>
@@ -1915,11 +1914,11 @@
       <c r="U36" s="9"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A37" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>35</v>
+      <c r="A37" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -1942,11 +1941,11 @@
       <c r="U37" s="9"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>37</v>
+      <c r="A38" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="C38" s="10">
         <v>1</v>
@@ -1973,16 +1972,16 @@
       <c r="U38" s="9"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A39" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
+      <c r="A39" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
       <c r="I39" s="9"/>
@@ -1999,561 +1998,561 @@
       <c r="T39" s="9"/>
       <c r="U39" s="9"/>
     </row>
-    <row r="40" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="27"/>
-      <c r="S40" s="27"/>
-      <c r="T40" s="27"/>
-      <c r="U40" s="27"/>
-    </row>
-    <row r="41" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="24" t="s">
+    <row r="40" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="26"/>
+      <c r="S40" s="26"/>
+      <c r="T40" s="26"/>
+      <c r="U40" s="26"/>
+    </row>
+    <row r="41" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="24">
+        <v>1</v>
+      </c>
+      <c r="D41" s="24">
+        <v>1</v>
+      </c>
+      <c r="E41" s="24">
+        <v>1</v>
+      </c>
+      <c r="F41" s="24">
+        <v>1</v>
+      </c>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="26"/>
+      <c r="U41" s="26"/>
+    </row>
+    <row r="42" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="26"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="26"/>
+      <c r="U42" s="26"/>
+    </row>
+    <row r="43" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="25">
-        <v>1</v>
-      </c>
-      <c r="D41" s="25">
-        <v>1</v>
-      </c>
-      <c r="E41" s="25">
-        <v>1</v>
-      </c>
-      <c r="F41" s="25">
-        <v>1</v>
-      </c>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="27"/>
-      <c r="S41" s="27"/>
-      <c r="T41" s="27"/>
-      <c r="U41" s="27"/>
-    </row>
-    <row r="42" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="27"/>
-      <c r="S42" s="27"/>
-      <c r="T42" s="27"/>
-      <c r="U42" s="27"/>
-    </row>
-    <row r="43" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="25">
-        <v>1</v>
-      </c>
-      <c r="D43" s="25">
-        <v>1</v>
-      </c>
-      <c r="E43" s="25">
-        <v>1</v>
-      </c>
-      <c r="F43" s="25">
-        <v>1</v>
-      </c>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="27"/>
-      <c r="S43" s="27"/>
-      <c r="T43" s="27"/>
-      <c r="U43" s="27"/>
-    </row>
-    <row r="44" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="27"/>
-      <c r="P44" s="27"/>
-      <c r="Q44" s="27"/>
-      <c r="R44" s="27"/>
-      <c r="S44" s="27"/>
-      <c r="T44" s="27"/>
-      <c r="U44" s="27"/>
-    </row>
-    <row r="45" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" s="25">
-        <v>1</v>
-      </c>
-      <c r="D45" s="25">
-        <v>1</v>
-      </c>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="27"/>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="27"/>
-      <c r="R45" s="27"/>
-      <c r="S45" s="27"/>
-      <c r="T45" s="27"/>
-      <c r="U45" s="27"/>
-    </row>
-    <row r="46" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="27"/>
-      <c r="P46" s="27"/>
-      <c r="Q46" s="27"/>
-      <c r="R46" s="27"/>
-      <c r="S46" s="27"/>
-      <c r="T46" s="27"/>
-      <c r="U46" s="27"/>
-    </row>
-    <row r="47" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="27"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="27"/>
-      <c r="R47" s="27"/>
-      <c r="S47" s="27"/>
-      <c r="T47" s="27"/>
-      <c r="U47" s="27"/>
-    </row>
-    <row r="48" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="27"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="27"/>
-      <c r="P48" s="27"/>
-      <c r="Q48" s="27"/>
-      <c r="R48" s="27"/>
-      <c r="S48" s="27"/>
-      <c r="T48" s="27"/>
-      <c r="U48" s="27"/>
-    </row>
-    <row r="49" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" s="24" t="s">
+      <c r="C43" s="24">
+        <v>1</v>
+      </c>
+      <c r="D43" s="24">
+        <v>1</v>
+      </c>
+      <c r="E43" s="24">
+        <v>1</v>
+      </c>
+      <c r="F43" s="24">
+        <v>1</v>
+      </c>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26"/>
+      <c r="S43" s="26"/>
+      <c r="T43" s="26"/>
+      <c r="U43" s="26"/>
+    </row>
+    <row r="44" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26"/>
+      <c r="S44" s="26"/>
+      <c r="T44" s="26"/>
+      <c r="U44" s="26"/>
+    </row>
+    <row r="45" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="24">
+        <v>1</v>
+      </c>
+      <c r="D45" s="24">
+        <v>1</v>
+      </c>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="26"/>
+      <c r="S45" s="26"/>
+      <c r="T45" s="26"/>
+      <c r="U45" s="26"/>
+    </row>
+    <row r="46" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="26"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="26"/>
+      <c r="P46" s="26"/>
+      <c r="Q46" s="26"/>
+      <c r="R46" s="26"/>
+      <c r="S46" s="26"/>
+      <c r="T46" s="26"/>
+      <c r="U46" s="26"/>
+    </row>
+    <row r="47" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="26"/>
+      <c r="Q47" s="26"/>
+      <c r="R47" s="26"/>
+      <c r="S47" s="26"/>
+      <c r="T47" s="26"/>
+      <c r="U47" s="26"/>
+    </row>
+    <row r="48" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="26"/>
+      <c r="R48" s="26"/>
+      <c r="S48" s="26"/>
+      <c r="T48" s="26"/>
+      <c r="U48" s="26"/>
+    </row>
+    <row r="49" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="26"/>
+      <c r="P49" s="26"/>
+      <c r="Q49" s="26"/>
+      <c r="R49" s="26"/>
+      <c r="S49" s="26"/>
+      <c r="T49" s="26"/>
+      <c r="U49" s="26"/>
+    </row>
+    <row r="50" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="26"/>
+      <c r="P50" s="26"/>
+      <c r="Q50" s="26"/>
+      <c r="R50" s="26"/>
+      <c r="S50" s="26"/>
+      <c r="T50" s="26"/>
+      <c r="U50" s="26"/>
+    </row>
+    <row r="51" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="27"/>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="27"/>
-      <c r="R49" s="27"/>
-      <c r="S49" s="27"/>
-      <c r="T49" s="27"/>
-      <c r="U49" s="27"/>
-    </row>
-    <row r="50" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B50" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="27"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="27"/>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="27"/>
-      <c r="R50" s="27"/>
-      <c r="S50" s="27"/>
-      <c r="T50" s="27"/>
-      <c r="U50" s="27"/>
-    </row>
-    <row r="51" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B51" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C51" s="25">
-        <v>1</v>
-      </c>
-      <c r="D51" s="25">
-        <v>1</v>
-      </c>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="27"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="27"/>
-      <c r="P51" s="27"/>
-      <c r="Q51" s="27"/>
-      <c r="R51" s="27"/>
-      <c r="S51" s="27"/>
-      <c r="T51" s="27"/>
-      <c r="U51" s="27"/>
-    </row>
-    <row r="52" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B52" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="27"/>
-      <c r="P52" s="27"/>
-      <c r="Q52" s="27"/>
-      <c r="R52" s="27"/>
-      <c r="S52" s="27"/>
-      <c r="T52" s="27"/>
-      <c r="U52" s="27"/>
-    </row>
-    <row r="53" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B53" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="27"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="27"/>
-      <c r="P53" s="27"/>
-      <c r="Q53" s="27"/>
-      <c r="R53" s="27"/>
-      <c r="S53" s="27"/>
-      <c r="T53" s="27"/>
-      <c r="U53" s="27"/>
-    </row>
-    <row r="54" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C54" s="25">
-        <v>1</v>
-      </c>
-      <c r="D54" s="25">
-        <v>1</v>
-      </c>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="27"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="27"/>
-      <c r="P54" s="27"/>
-      <c r="Q54" s="27"/>
-      <c r="R54" s="27"/>
-      <c r="S54" s="27"/>
-      <c r="T54" s="27"/>
-      <c r="U54" s="27"/>
-    </row>
-    <row r="55" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B55" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C55" s="25">
-        <v>1</v>
-      </c>
-      <c r="D55" s="25">
-        <v>1</v>
-      </c>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="27"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="27"/>
-      <c r="P55" s="27"/>
-      <c r="Q55" s="27"/>
-      <c r="R55" s="27"/>
-      <c r="S55" s="27"/>
-      <c r="T55" s="27"/>
-      <c r="U55" s="27"/>
-    </row>
-    <row r="56" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B56" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="27"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="27"/>
-      <c r="P56" s="27"/>
-      <c r="Q56" s="27"/>
-      <c r="R56" s="27"/>
-      <c r="S56" s="27"/>
-      <c r="T56" s="27"/>
-      <c r="U56" s="27"/>
-    </row>
-    <row r="57" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B57" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C57" s="25">
-        <v>1</v>
-      </c>
-      <c r="D57" s="25">
-        <v>1</v>
-      </c>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="27"/>
-      <c r="N57" s="27"/>
-      <c r="O57" s="27"/>
-      <c r="P57" s="27"/>
-      <c r="Q57" s="27"/>
-      <c r="R57" s="27"/>
-      <c r="S57" s="27"/>
-      <c r="T57" s="27"/>
-      <c r="U57" s="27"/>
-    </row>
-    <row r="58" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B58" s="24" t="s">
+      <c r="C51" s="24">
+        <v>1</v>
+      </c>
+      <c r="D51" s="24">
+        <v>1</v>
+      </c>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="26"/>
+      <c r="Q51" s="26"/>
+      <c r="R51" s="26"/>
+      <c r="S51" s="26"/>
+      <c r="T51" s="26"/>
+      <c r="U51" s="26"/>
+    </row>
+    <row r="52" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="27"/>
-      <c r="M58" s="27"/>
-      <c r="N58" s="27"/>
-      <c r="O58" s="27"/>
-      <c r="P58" s="27"/>
-      <c r="Q58" s="27"/>
-      <c r="R58" s="27"/>
-      <c r="S58" s="27"/>
-      <c r="T58" s="27"/>
-      <c r="U58" s="27"/>
+      <c r="B52" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="26"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="26"/>
+      <c r="P52" s="26"/>
+      <c r="Q52" s="26"/>
+      <c r="R52" s="26"/>
+      <c r="S52" s="26"/>
+      <c r="T52" s="26"/>
+      <c r="U52" s="26"/>
+    </row>
+    <row r="53" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="26"/>
+      <c r="P53" s="26"/>
+      <c r="Q53" s="26"/>
+      <c r="R53" s="26"/>
+      <c r="S53" s="26"/>
+      <c r="T53" s="26"/>
+      <c r="U53" s="26"/>
+    </row>
+    <row r="54" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="24">
+        <v>1</v>
+      </c>
+      <c r="D54" s="24">
+        <v>1</v>
+      </c>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="26"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="26"/>
+      <c r="P54" s="26"/>
+      <c r="Q54" s="26"/>
+      <c r="R54" s="26"/>
+      <c r="S54" s="26"/>
+      <c r="T54" s="26"/>
+      <c r="U54" s="26"/>
+    </row>
+    <row r="55" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="24">
+        <v>1</v>
+      </c>
+      <c r="D55" s="24">
+        <v>1</v>
+      </c>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="26"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="26"/>
+      <c r="P55" s="26"/>
+      <c r="Q55" s="26"/>
+      <c r="R55" s="26"/>
+      <c r="S55" s="26"/>
+      <c r="T55" s="26"/>
+      <c r="U55" s="26"/>
+    </row>
+    <row r="56" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="26"/>
+      <c r="N56" s="26"/>
+      <c r="O56" s="26"/>
+      <c r="P56" s="26"/>
+      <c r="Q56" s="26"/>
+      <c r="R56" s="26"/>
+      <c r="S56" s="26"/>
+      <c r="T56" s="26"/>
+      <c r="U56" s="26"/>
+    </row>
+    <row r="57" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="24">
+        <v>1</v>
+      </c>
+      <c r="D57" s="24">
+        <v>1</v>
+      </c>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="26"/>
+      <c r="N57" s="26"/>
+      <c r="O57" s="26"/>
+      <c r="P57" s="26"/>
+      <c r="Q57" s="26"/>
+      <c r="R57" s="26"/>
+      <c r="S57" s="26"/>
+      <c r="T57" s="26"/>
+      <c r="U57" s="26"/>
+    </row>
+    <row r="58" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="26"/>
+      <c r="N58" s="26"/>
+      <c r="O58" s="26"/>
+      <c r="P58" s="26"/>
+      <c r="Q58" s="26"/>
+      <c r="R58" s="26"/>
+      <c r="S58" s="26"/>
+      <c r="T58" s="26"/>
+      <c r="U58" s="26"/>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B59" s="20" t="s">
         <v>40</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
@@ -2577,10 +2576,10 @@
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="C60" s="10">
         <v>1</v>
@@ -2612,10 +2611,10 @@
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="C61" s="10">
         <v>1</v>
@@ -2647,15 +2646,15 @@
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
+        <v>40</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
       <c r="I62" s="9"/>
@@ -2674,10 +2673,10 @@
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B63" s="19" t="s">
         <v>43</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>46</v>
       </c>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
@@ -2701,10 +2700,10 @@
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
@@ -2728,10 +2727,10 @@
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B65" s="20" t="s">
-        <v>50</v>
+        <v>40</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -2755,10 +2754,10 @@
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B66" s="20" t="s">
-        <v>52</v>
+        <v>40</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -2782,10 +2781,10 @@
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B67" s="20" t="s">
-        <v>54</v>
+        <v>40</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -2809,10 +2808,10 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B68" s="20" t="s">
-        <v>22</v>
+        <v>40</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
@@ -2836,10 +2835,10 @@
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B69" s="20" t="s">
-        <v>23</v>
+        <v>40</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
@@ -2863,10 +2862,10 @@
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B70" s="20" t="s">
-        <v>25</v>
+        <v>40</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="C70" s="10">
         <v>1</v>
@@ -2894,10 +2893,10 @@
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B71" s="20" t="s">
-        <v>27</v>
+        <v>40</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
@@ -2921,10 +2920,10 @@
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B72" s="20" t="s">
-        <v>29</v>
+        <v>40</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
@@ -2948,10 +2947,10 @@
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B73" s="20" t="s">
-        <v>31</v>
+        <v>40</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="C73" s="10">
         <v>1</v>
@@ -2979,10 +2978,10 @@
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B74" s="20" t="s">
-        <v>33</v>
+        <v>40</v>
+      </c>
+      <c r="B74" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="C74" s="10">
         <v>1</v>
@@ -3010,10 +3009,10 @@
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B75" s="20" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
@@ -3037,10 +3036,10 @@
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B76" s="20" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="C76" s="10">
         <v>1</v>
@@ -3068,10 +3067,10 @@
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B77" s="20" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
@@ -3095,10 +3094,10 @@
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B78" s="20" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
@@ -3125,10 +3124,10 @@
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B79" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -3152,10 +3151,10 @@
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B80" s="20" t="s">
         <v>42</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
@@ -3179,10 +3178,10 @@
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B81" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
@@ -3206,20 +3205,20 @@
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B82" s="20" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="12"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
       <c r="L82" s="9"/>
       <c r="M82" s="9"/>
       <c r="N82" s="9"/>
@@ -3233,10 +3232,10 @@
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B83" s="19" t="s">
         <v>45</v>
-      </c>
-      <c r="B83" s="20" t="s">
-        <v>48</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
@@ -3260,10 +3259,10 @@
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B84" s="20" t="s">
-        <v>50</v>
+        <v>42</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
@@ -3287,10 +3286,10 @@
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B85" s="20" t="s">
-        <v>52</v>
+        <v>42</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
@@ -3314,10 +3313,10 @@
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B86" s="20" t="s">
-        <v>54</v>
+        <v>42</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
@@ -3341,10 +3340,10 @@
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B87" s="20" t="s">
-        <v>22</v>
+        <v>42</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
@@ -3368,10 +3367,10 @@
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B88" s="20" t="s">
-        <v>23</v>
+        <v>42</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
@@ -3395,10 +3394,10 @@
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B89" s="20" t="s">
-        <v>25</v>
+        <v>42</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
@@ -3422,10 +3421,10 @@
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B90" s="20" t="s">
-        <v>27</v>
+        <v>42</v>
+      </c>
+      <c r="B90" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
@@ -3452,10 +3451,10 @@
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B91" s="20" t="s">
-        <v>29</v>
+        <v>42</v>
+      </c>
+      <c r="B91" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
@@ -3479,10 +3478,10 @@
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B92" s="20" t="s">
-        <v>31</v>
+        <v>42</v>
+      </c>
+      <c r="B92" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
@@ -3506,10 +3505,10 @@
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B93" s="20" t="s">
-        <v>33</v>
+        <v>42</v>
+      </c>
+      <c r="B93" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
@@ -3533,10 +3532,10 @@
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B94" s="20" t="s">
-        <v>35</v>
+        <v>42</v>
+      </c>
+      <c r="B94" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
@@ -3563,10 +3562,10 @@
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B95" s="20" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="B95" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
@@ -3590,10 +3589,10 @@
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B96" s="20" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="B96" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
@@ -3616,11 +3615,11 @@
       <c r="U96" s="9"/>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A97" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B97" s="20" t="s">
-        <v>40</v>
+      <c r="A97" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B97" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
@@ -3643,11 +3642,11 @@
       <c r="U97" s="9"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A98" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B98" s="20" t="s">
-        <v>41</v>
+      <c r="A98" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B98" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
@@ -3672,11 +3671,11 @@
       <c r="U98" s="9"/>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A99" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B99" s="20" t="s">
-        <v>42</v>
+      <c r="A99" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B99" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
@@ -3701,11 +3700,11 @@
       <c r="U99" s="9"/>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A100" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B100" s="20" t="s">
+      <c r="A100" s="21" t="s">
         <v>44</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
@@ -3730,11 +3729,11 @@
       <c r="U100" s="9"/>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A101" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B101" s="20" t="s">
-        <v>46</v>
+      <c r="A101" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B101" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
@@ -3757,22 +3756,22 @@
       <c r="U101" s="9"/>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A102" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B102" s="20" t="s">
-        <v>48</v>
+      <c r="A102" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B102" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
       <c r="F102" s="9"/>
-      <c r="G102" s="12"/>
-      <c r="H102" s="12"/>
-      <c r="I102" s="12"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
       <c r="J102" s="9"/>
-      <c r="K102" s="12"/>
-      <c r="L102" s="12"/>
+      <c r="K102" s="11"/>
+      <c r="L102" s="11"/>
       <c r="M102" s="9"/>
       <c r="N102" s="9"/>
       <c r="O102" s="9"/>
@@ -3784,11 +3783,11 @@
       <c r="U102" s="9"/>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A103" s="22" t="s">
+      <c r="A103" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B103" s="19" t="s">
         <v>47</v>
-      </c>
-      <c r="B103" s="20" t="s">
-        <v>50</v>
       </c>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
@@ -3817,11 +3816,11 @@
       <c r="U103" s="9"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A104" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B104" s="20" t="s">
-        <v>52</v>
+      <c r="A104" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B104" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
@@ -3850,11 +3849,11 @@
       <c r="U104" s="9"/>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A105" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B105" s="20" t="s">
-        <v>54</v>
+      <c r="A105" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B105" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
@@ -3883,11 +3882,11 @@
       <c r="U105" s="9"/>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A106" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B106" s="20" t="s">
-        <v>22</v>
+      <c r="A106" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B106" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
@@ -3916,11 +3915,11 @@
       <c r="U106" s="9"/>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A107" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B107" s="20" t="s">
-        <v>23</v>
+      <c r="A107" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B107" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
@@ -3949,11 +3948,11 @@
       <c r="U107" s="9"/>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A108" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B108" s="20" t="s">
-        <v>25</v>
+      <c r="A108" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B108" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
@@ -3982,11 +3981,11 @@
       <c r="U108" s="9"/>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A109" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B109" s="20" t="s">
-        <v>27</v>
+      <c r="A109" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B109" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
@@ -4009,11 +4008,11 @@
       <c r="U109" s="9"/>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A110" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B110" s="20" t="s">
-        <v>29</v>
+      <c r="A110" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B110" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
@@ -4042,11 +4041,11 @@
       <c r="U110" s="9"/>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A111" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B111" s="20" t="s">
-        <v>31</v>
+      <c r="A111" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B111" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
@@ -4071,11 +4070,11 @@
       <c r="U111" s="9"/>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A112" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B112" s="20" t="s">
-        <v>33</v>
+      <c r="A112" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B112" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
@@ -4102,11 +4101,11 @@
       <c r="U112" s="9"/>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A113" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B113" s="20" t="s">
-        <v>35</v>
+      <c r="A113" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B113" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
@@ -4129,11 +4128,11 @@
       <c r="U113" s="9"/>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A114" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B114" s="20" t="s">
-        <v>37</v>
+      <c r="A114" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B114" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
@@ -4158,11 +4157,11 @@
       <c r="U114" s="9"/>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A115" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B115" s="20" t="s">
-        <v>39</v>
+      <c r="A115" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B115" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
@@ -4188,10 +4187,10 @@
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B116" s="20" t="s">
-        <v>40</v>
+        <v>48</v>
+      </c>
+      <c r="B116" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="C116" s="10"/>
       <c r="D116" s="10"/>
@@ -4215,10 +4214,10 @@
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B117" s="20" t="s">
-        <v>41</v>
+        <v>48</v>
+      </c>
+      <c r="B117" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="C117" s="10"/>
       <c r="D117" s="10"/>
@@ -4242,10 +4241,10 @@
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B118" s="20" t="s">
-        <v>42</v>
+        <v>48</v>
+      </c>
+      <c r="B118" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="C118" s="10"/>
       <c r="D118" s="10"/>
@@ -4269,10 +4268,10 @@
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B119" s="20" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="B119" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="C119" s="10"/>
       <c r="D119" s="10"/>
@@ -4296,10 +4295,10 @@
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B120" s="20" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="B120" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="C120" s="10"/>
       <c r="D120" s="10"/>
@@ -4323,10 +4322,10 @@
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B121" s="20" t="s">
         <v>48</v>
+      </c>
+      <c r="B121" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="C121" s="10"/>
       <c r="D121" s="10"/>
@@ -4356,10 +4355,10 @@
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B122" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="B122" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="C122" s="10"/>
       <c r="D122" s="10"/>
@@ -4389,21 +4388,21 @@
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B123" s="20" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="B123" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="C123" s="10"/>
       <c r="D123" s="10"/>
       <c r="E123" s="10"/>
       <c r="F123" s="10"/>
-      <c r="G123" s="12"/>
-      <c r="H123" s="12"/>
+      <c r="G123" s="11"/>
+      <c r="H123" s="11"/>
       <c r="I123" s="9"/>
-      <c r="J123" s="12"/>
+      <c r="J123" s="11"/>
       <c r="K123" s="9"/>
-      <c r="L123" s="12"/>
+      <c r="L123" s="11"/>
       <c r="M123" s="9"/>
       <c r="N123" s="9"/>
       <c r="O123" s="9"/>
@@ -4416,10 +4415,10 @@
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B124" s="19" t="s">
         <v>51</v>
-      </c>
-      <c r="B124" s="20" t="s">
-        <v>54</v>
       </c>
       <c r="C124" s="10"/>
       <c r="D124" s="10"/>
@@ -4449,10 +4448,10 @@
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B125" s="20" t="s">
-        <v>22</v>
+        <v>48</v>
+      </c>
+      <c r="B125" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="C125" s="10"/>
       <c r="D125" s="10"/>
@@ -4480,10 +4479,10 @@
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B126" s="20" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="B126" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="C126" s="10"/>
       <c r="D126" s="10"/>
@@ -4511,10 +4510,10 @@
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B127" s="20" t="s">
-        <v>25</v>
+        <v>48</v>
+      </c>
+      <c r="B127" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="C127" s="10"/>
       <c r="D127" s="10"/>
@@ -4542,10 +4541,10 @@
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B128" s="20" t="s">
-        <v>27</v>
+        <v>48</v>
+      </c>
+      <c r="B128" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="C128" s="10"/>
       <c r="D128" s="10"/>
@@ -4569,10 +4568,10 @@
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B129" s="20" t="s">
-        <v>29</v>
+        <v>48</v>
+      </c>
+      <c r="B129" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="C129" s="10"/>
       <c r="D129" s="10"/>
@@ -4600,10 +4599,10 @@
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B130" s="20" t="s">
-        <v>31</v>
+        <v>48</v>
+      </c>
+      <c r="B130" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="C130" s="10"/>
       <c r="D130" s="10"/>
@@ -4629,10 +4628,10 @@
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B131" s="20" t="s">
-        <v>33</v>
+        <v>48</v>
+      </c>
+      <c r="B131" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="C131" s="10"/>
       <c r="D131" s="10"/>
@@ -4660,10 +4659,10 @@
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B132" s="20" t="s">
-        <v>35</v>
+        <v>48</v>
+      </c>
+      <c r="B132" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="C132" s="10"/>
       <c r="D132" s="10"/>
@@ -4687,10 +4686,10 @@
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B133" s="20" t="s">
-        <v>37</v>
+        <v>48</v>
+      </c>
+      <c r="B133" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="C133" s="10"/>
       <c r="D133" s="10"/>
@@ -4714,10 +4713,10 @@
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B134" s="20" t="s">
-        <v>39</v>
+        <v>48</v>
+      </c>
+      <c r="B134" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="C134" s="10"/>
       <c r="D134" s="10"/>
@@ -4740,11 +4739,11 @@
       <c r="U134" s="9"/>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A135" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B135" s="20" t="s">
-        <v>40</v>
+      <c r="A135" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B135" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
@@ -4767,11 +4766,11 @@
       <c r="U135" s="9"/>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A136" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B136" s="20" t="s">
-        <v>41</v>
+      <c r="A136" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B136" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
@@ -4794,11 +4793,11 @@
       <c r="U136" s="9"/>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A137" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B137" s="20" t="s">
-        <v>42</v>
+      <c r="A137" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B137" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
@@ -4821,11 +4820,11 @@
       <c r="U137" s="9"/>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A138" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B138" s="20" t="s">
-        <v>44</v>
+      <c r="A138" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B138" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
@@ -4848,11 +4847,11 @@
       <c r="U138" s="9"/>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A139" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B139" s="20" t="s">
+      <c r="A139" s="21" t="s">
         <v>46</v>
+      </c>
+      <c r="B139" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
@@ -4875,11 +4874,11 @@
       <c r="U139" s="9"/>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A140" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B140" s="20" t="s">
-        <v>48</v>
+      <c r="A140" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B140" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
@@ -4908,22 +4907,22 @@
       <c r="U140" s="9"/>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A141" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B141" s="20" t="s">
-        <v>50</v>
+      <c r="A141" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B141" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
       <c r="F141" s="10"/>
-      <c r="G141" s="12"/>
-      <c r="H141" s="12"/>
+      <c r="G141" s="11"/>
+      <c r="H141" s="11"/>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
       <c r="K141" s="9"/>
-      <c r="L141" s="12"/>
+      <c r="L141" s="11"/>
       <c r="M141" s="9"/>
       <c r="N141" s="9"/>
       <c r="O141" s="9"/>
@@ -4935,11 +4934,11 @@
       <c r="U141" s="9"/>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A142" s="22" t="s">
+      <c r="A142" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B142" s="19" t="s">
         <v>49</v>
-      </c>
-      <c r="B142" s="20" t="s">
-        <v>52</v>
       </c>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
@@ -4968,11 +4967,11 @@
       <c r="U142" s="9"/>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A143" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B143" s="20" t="s">
-        <v>54</v>
+      <c r="A143" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B143" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
@@ -5001,11 +5000,11 @@
       <c r="U143" s="9"/>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A144" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B144" s="20" t="s">
-        <v>22</v>
+      <c r="A144" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B144" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
@@ -5032,11 +5031,11 @@
       <c r="U144" s="9"/>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A145" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B145" s="20" t="s">
-        <v>23</v>
+      <c r="A145" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B145" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
@@ -5063,11 +5062,11 @@
       <c r="U145" s="9"/>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A146" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B146" s="20" t="s">
-        <v>25</v>
+      <c r="A146" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B146" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
@@ -5094,11 +5093,11 @@
       <c r="U146" s="9"/>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A147" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B147" s="20" t="s">
-        <v>27</v>
+      <c r="A147" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B147" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
@@ -5121,11 +5120,11 @@
       <c r="U147" s="9"/>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A148" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B148" s="20" t="s">
-        <v>29</v>
+      <c r="A148" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B148" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
@@ -5152,11 +5151,11 @@
       <c r="U148" s="9"/>
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A149" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B149" s="20" t="s">
-        <v>31</v>
+      <c r="A149" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B149" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
@@ -5179,11 +5178,11 @@
       <c r="U149" s="9"/>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A150" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B150" s="20" t="s">
-        <v>33</v>
+      <c r="A150" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B150" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
@@ -5208,11 +5207,11 @@
       <c r="U150" s="9"/>
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A151" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B151" s="20" t="s">
-        <v>35</v>
+      <c r="A151" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B151" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
@@ -5235,11 +5234,11 @@
       <c r="U151" s="9"/>
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A152" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B152" s="20" t="s">
-        <v>37</v>
+      <c r="A152" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B152" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
@@ -5262,11 +5261,11 @@
       <c r="U152" s="9"/>
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A153" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B153" s="20" t="s">
-        <v>39</v>
+      <c r="A153" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B153" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
@@ -5290,10 +5289,10 @@
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B154" s="20" t="s">
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="B154" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
@@ -5317,10 +5316,10 @@
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B155" s="20" t="s">
-        <v>41</v>
+        <v>50</v>
+      </c>
+      <c r="B155" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
@@ -5344,10 +5343,10 @@
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B156" s="20" t="s">
-        <v>42</v>
+        <v>50</v>
+      </c>
+      <c r="B156" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
@@ -5371,10 +5370,10 @@
     </row>
     <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B157" s="20" t="s">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="B157" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
@@ -5398,10 +5397,10 @@
     </row>
     <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B158" s="20" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="B158" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
@@ -5425,10 +5424,10 @@
     </row>
     <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B159" s="20" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="B159" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
@@ -5458,10 +5457,10 @@
     </row>
     <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B160" s="20" t="s">
         <v>50</v>
+      </c>
+      <c r="B160" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
@@ -5491,10 +5490,10 @@
     </row>
     <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B161" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="B161" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
@@ -5524,21 +5523,21 @@
     </row>
     <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B162" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="B162" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
       <c r="E162" s="9"/>
       <c r="F162" s="10"/>
-      <c r="G162" s="12"/>
-      <c r="H162" s="12"/>
+      <c r="G162" s="11"/>
+      <c r="H162" s="11"/>
       <c r="I162" s="9"/>
       <c r="J162" s="9"/>
       <c r="K162" s="9"/>
-      <c r="L162" s="12"/>
+      <c r="L162" s="11"/>
       <c r="M162" s="9"/>
       <c r="N162" s="9"/>
       <c r="O162" s="9"/>
@@ -5551,10 +5550,10 @@
     </row>
     <row r="163" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B163" s="20" t="s">
-        <v>22</v>
+        <v>50</v>
+      </c>
+      <c r="B163" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
@@ -5582,10 +5581,10 @@
     </row>
     <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B164" s="20" t="s">
-        <v>23</v>
+        <v>50</v>
+      </c>
+      <c r="B164" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
@@ -5613,10 +5612,10 @@
     </row>
     <row r="165" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B165" s="20" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="B165" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
@@ -5644,10 +5643,10 @@
     </row>
     <row r="166" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B166" s="20" t="s">
-        <v>27</v>
+        <v>50</v>
+      </c>
+      <c r="B166" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
@@ -5671,10 +5670,10 @@
     </row>
     <row r="167" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B167" s="20" t="s">
-        <v>29</v>
+        <v>50</v>
+      </c>
+      <c r="B167" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
@@ -5702,10 +5701,10 @@
     </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B168" s="20" t="s">
-        <v>31</v>
+        <v>50</v>
+      </c>
+      <c r="B168" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
@@ -5731,10 +5730,10 @@
     </row>
     <row r="169" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B169" s="20" t="s">
-        <v>33</v>
+        <v>50</v>
+      </c>
+      <c r="B169" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
@@ -5762,10 +5761,10 @@
     </row>
     <row r="170" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B170" s="20" t="s">
-        <v>35</v>
+        <v>50</v>
+      </c>
+      <c r="B170" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
@@ -5789,10 +5788,10 @@
     </row>
     <row r="171" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B171" s="20" t="s">
-        <v>37</v>
+        <v>50</v>
+      </c>
+      <c r="B171" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="C171" s="9"/>
       <c r="D171" s="9"/>
@@ -5816,10 +5815,10 @@
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B172" s="20" t="s">
-        <v>39</v>
+        <v>50</v>
+      </c>
+      <c r="B172" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
@@ -5843,10 +5842,10 @@
     </row>
     <row r="173" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B173" s="20" t="s">
-        <v>40</v>
+        <v>18</v>
+      </c>
+      <c r="B173" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="C173" s="10"/>
       <c r="D173" s="10"/>
@@ -5870,10 +5869,10 @@
     </row>
     <row r="174" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B174" s="20" t="s">
-        <v>41</v>
+        <v>18</v>
+      </c>
+      <c r="B174" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="C174" s="10"/>
       <c r="D174" s="10"/>
@@ -5897,10 +5896,10 @@
     </row>
     <row r="175" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B175" s="20" t="s">
-        <v>42</v>
+        <v>18</v>
+      </c>
+      <c r="B175" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="C175" s="10"/>
       <c r="D175" s="10"/>
@@ -5924,10 +5923,10 @@
     </row>
     <row r="176" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B176" s="20" t="s">
-        <v>44</v>
+        <v>18</v>
+      </c>
+      <c r="B176" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="C176" s="10"/>
       <c r="D176" s="10"/>
@@ -5951,10 +5950,10 @@
     </row>
     <row r="177" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B177" s="20" t="s">
-        <v>46</v>
+        <v>18</v>
+      </c>
+      <c r="B177" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="C177" s="10"/>
       <c r="D177" s="10"/>
@@ -5978,10 +5977,10 @@
     </row>
     <row r="178" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B178" s="20" t="s">
-        <v>48</v>
+        <v>18</v>
+      </c>
+      <c r="B178" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="C178" s="10"/>
       <c r="D178" s="10"/>
@@ -6011,10 +6010,10 @@
     </row>
     <row r="179" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B179" s="20" t="s">
-        <v>50</v>
+        <v>18</v>
+      </c>
+      <c r="B179" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="C179" s="10"/>
       <c r="D179" s="10"/>
@@ -6042,10 +6041,10 @@
     </row>
     <row r="180" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B180" s="20" t="s">
-        <v>52</v>
+        <v>18</v>
+      </c>
+      <c r="B180" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="C180" s="10"/>
       <c r="D180" s="10"/>
@@ -6073,10 +6072,10 @@
     </row>
     <row r="181" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B181" s="20" t="s">
-        <v>54</v>
+        <v>18</v>
+      </c>
+      <c r="B181" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="C181" s="10"/>
       <c r="D181" s="10"/>
@@ -6104,18 +6103,18 @@
     </row>
     <row r="182" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B182" s="20" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="B182" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="C182" s="10"/>
       <c r="D182" s="10"/>
       <c r="E182" s="10"/>
       <c r="F182" s="10"/>
-      <c r="G182" s="12"/>
-      <c r="H182" s="12"/>
-      <c r="I182" s="12"/>
+      <c r="G182" s="11"/>
+      <c r="H182" s="11"/>
+      <c r="I182" s="11"/>
       <c r="J182" s="9"/>
       <c r="K182" s="9"/>
       <c r="L182" s="9"/>
@@ -6131,10 +6130,10 @@
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B183" s="20" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="B183" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="C183" s="10"/>
       <c r="D183" s="10"/>
@@ -6164,10 +6163,10 @@
     </row>
     <row r="184" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B184" s="20" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="B184" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="C184" s="10"/>
       <c r="D184" s="10"/>
@@ -6197,10 +6196,10 @@
     </row>
     <row r="185" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B185" s="20" t="s">
-        <v>27</v>
+        <v>18</v>
+      </c>
+      <c r="B185" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="C185" s="10"/>
       <c r="D185" s="10"/>
@@ -6224,10 +6223,10 @@
     </row>
     <row r="186" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B186" s="20" t="s">
-        <v>29</v>
+        <v>18</v>
+      </c>
+      <c r="B186" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="C186" s="10"/>
       <c r="D186" s="10"/>
@@ -6255,10 +6254,10 @@
     </row>
     <row r="187" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B187" s="20" t="s">
-        <v>31</v>
+        <v>18</v>
+      </c>
+      <c r="B187" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="C187" s="10"/>
       <c r="D187" s="10"/>
@@ -6284,10 +6283,10 @@
     </row>
     <row r="188" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B188" s="20" t="s">
-        <v>33</v>
+        <v>18</v>
+      </c>
+      <c r="B188" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="C188" s="10"/>
       <c r="D188" s="10"/>
@@ -6313,10 +6312,10 @@
     </row>
     <row r="189" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B189" s="20" t="s">
-        <v>35</v>
+        <v>18</v>
+      </c>
+      <c r="B189" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="C189" s="10"/>
       <c r="D189" s="10"/>
@@ -6340,10 +6339,10 @@
     </row>
     <row r="190" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B190" s="20" t="s">
-        <v>37</v>
+        <v>18</v>
+      </c>
+      <c r="B190" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="C190" s="10"/>
       <c r="D190" s="10"/>
@@ -6367,10 +6366,10 @@
     </row>
     <row r="191" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B191" s="20" t="s">
-        <v>39</v>
+        <v>18</v>
+      </c>
+      <c r="B191" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="C191" s="10"/>
       <c r="D191" s="10"/>
@@ -6393,11 +6392,11 @@
       <c r="U191" s="9"/>
     </row>
     <row r="192" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A192" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B192" s="20" t="s">
-        <v>40</v>
+      <c r="A192" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B192" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="C192" s="9"/>
       <c r="D192" s="9"/>
@@ -6420,11 +6419,11 @@
       <c r="U192" s="9"/>
     </row>
     <row r="193" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A193" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B193" s="20" t="s">
-        <v>41</v>
+      <c r="A193" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B193" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="C193" s="9"/>
       <c r="D193" s="9"/>
@@ -6433,8 +6432,8 @@
       <c r="G193" s="10"/>
       <c r="H193" s="10"/>
       <c r="I193" s="10"/>
-      <c r="J193" s="13"/>
-      <c r="K193" s="13"/>
+      <c r="J193" s="12"/>
+      <c r="K193" s="12"/>
       <c r="L193" s="9"/>
       <c r="M193" s="9"/>
       <c r="N193" s="9"/>
@@ -6447,11 +6446,11 @@
       <c r="U193" s="9"/>
     </row>
     <row r="194" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A194" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B194" s="20" t="s">
-        <v>42</v>
+      <c r="A194" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B194" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="C194" s="9"/>
       <c r="D194" s="9"/>
@@ -6460,8 +6459,8 @@
       <c r="G194" s="10"/>
       <c r="H194" s="10"/>
       <c r="I194" s="10"/>
-      <c r="J194" s="13"/>
-      <c r="K194" s="13"/>
+      <c r="J194" s="12"/>
+      <c r="K194" s="12"/>
       <c r="L194" s="9"/>
       <c r="M194" s="9"/>
       <c r="N194" s="9"/>
@@ -6474,11 +6473,11 @@
       <c r="U194" s="9"/>
     </row>
     <row r="195" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A195" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B195" s="20" t="s">
-        <v>44</v>
+      <c r="A195" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B195" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="C195" s="9"/>
       <c r="D195" s="9"/>
@@ -6487,8 +6486,8 @@
       <c r="G195" s="10"/>
       <c r="H195" s="10"/>
       <c r="I195" s="10"/>
-      <c r="J195" s="13"/>
-      <c r="K195" s="13"/>
+      <c r="J195" s="12"/>
+      <c r="K195" s="12"/>
       <c r="L195" s="9"/>
       <c r="M195" s="9"/>
       <c r="N195" s="9"/>
@@ -6501,11 +6500,11 @@
       <c r="U195" s="9"/>
     </row>
     <row r="196" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A196" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B196" s="20" t="s">
-        <v>46</v>
+      <c r="A196" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B196" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="C196" s="9"/>
       <c r="D196" s="9"/>
@@ -6514,8 +6513,8 @@
       <c r="G196" s="10"/>
       <c r="H196" s="10"/>
       <c r="I196" s="10"/>
-      <c r="J196" s="13"/>
-      <c r="K196" s="13"/>
+      <c r="J196" s="12"/>
+      <c r="K196" s="12"/>
       <c r="L196" s="9"/>
       <c r="M196" s="9"/>
       <c r="N196" s="9"/>
@@ -6528,11 +6527,11 @@
       <c r="U196" s="9"/>
     </row>
     <row r="197" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A197" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B197" s="20" t="s">
-        <v>48</v>
+      <c r="A197" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B197" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="C197" s="9"/>
       <c r="D197" s="9"/>
@@ -6547,8 +6546,8 @@
       <c r="I197" s="10">
         <v>1</v>
       </c>
-      <c r="J197" s="13"/>
-      <c r="K197" s="13"/>
+      <c r="J197" s="12"/>
+      <c r="K197" s="12"/>
       <c r="L197" s="9"/>
       <c r="M197" s="9"/>
       <c r="N197" s="9"/>
@@ -6561,11 +6560,11 @@
       <c r="U197" s="9"/>
     </row>
     <row r="198" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A198" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B198" s="20" t="s">
-        <v>50</v>
+      <c r="A198" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B198" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="C198" s="9"/>
       <c r="D198" s="9"/>
@@ -6578,8 +6577,8 @@
         <v>1</v>
       </c>
       <c r="I198" s="10"/>
-      <c r="J198" s="13"/>
-      <c r="K198" s="13"/>
+      <c r="J198" s="12"/>
+      <c r="K198" s="12"/>
       <c r="L198" s="9"/>
       <c r="M198" s="9"/>
       <c r="N198" s="9"/>
@@ -6592,11 +6591,11 @@
       <c r="U198" s="9"/>
     </row>
     <row r="199" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A199" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B199" s="20" t="s">
-        <v>52</v>
+      <c r="A199" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B199" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="C199" s="9"/>
       <c r="D199" s="9"/>
@@ -6609,8 +6608,8 @@
         <v>1</v>
       </c>
       <c r="I199" s="10"/>
-      <c r="J199" s="13"/>
-      <c r="K199" s="13"/>
+      <c r="J199" s="12"/>
+      <c r="K199" s="12"/>
       <c r="L199" s="9"/>
       <c r="M199" s="9"/>
       <c r="N199" s="9"/>
@@ -6623,11 +6622,11 @@
       <c r="U199" s="9"/>
     </row>
     <row r="200" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A200" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B200" s="20" t="s">
-        <v>54</v>
+      <c r="A200" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B200" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="C200" s="9"/>
       <c r="D200" s="9"/>
@@ -6640,8 +6639,8 @@
         <v>1</v>
       </c>
       <c r="I200" s="10"/>
-      <c r="J200" s="13"/>
-      <c r="K200" s="13"/>
+      <c r="J200" s="12"/>
+      <c r="K200" s="12"/>
       <c r="L200" s="9"/>
       <c r="M200" s="9"/>
       <c r="N200" s="9"/>
@@ -6654,11 +6653,11 @@
       <c r="U200" s="9"/>
     </row>
     <row r="201" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A201" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B201" s="20" t="s">
-        <v>22</v>
+      <c r="A201" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B201" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="C201" s="9"/>
       <c r="D201" s="9"/>
@@ -6673,8 +6672,8 @@
       <c r="I201" s="10">
         <v>1</v>
       </c>
-      <c r="J201" s="13"/>
-      <c r="K201" s="13"/>
+      <c r="J201" s="12"/>
+      <c r="K201" s="12"/>
       <c r="L201" s="9"/>
       <c r="M201" s="9"/>
       <c r="N201" s="9"/>
@@ -6687,21 +6686,21 @@
       <c r="U201" s="9"/>
     </row>
     <row r="202" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A202" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B202" s="20" t="s">
-        <v>23</v>
+      <c r="A202" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B202" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="C202" s="9"/>
       <c r="D202" s="9"/>
       <c r="E202" s="9"/>
-      <c r="F202" s="14"/>
-      <c r="G202" s="14"/>
-      <c r="H202" s="14"/>
-      <c r="I202" s="14"/>
-      <c r="J202" s="13"/>
-      <c r="K202" s="13"/>
+      <c r="F202" s="13"/>
+      <c r="G202" s="13"/>
+      <c r="H202" s="13"/>
+      <c r="I202" s="13"/>
+      <c r="J202" s="12"/>
+      <c r="K202" s="12"/>
       <c r="L202" s="9"/>
       <c r="M202" s="9"/>
       <c r="N202" s="9"/>
@@ -6714,11 +6713,11 @@
       <c r="U202" s="9"/>
     </row>
     <row r="203" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A203" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B203" s="20" t="s">
-        <v>25</v>
+      <c r="A203" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B203" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="C203" s="9"/>
       <c r="D203" s="9"/>
@@ -6733,8 +6732,8 @@
       <c r="I203" s="10">
         <v>1</v>
       </c>
-      <c r="J203" s="13"/>
-      <c r="K203" s="13"/>
+      <c r="J203" s="12"/>
+      <c r="K203" s="12"/>
       <c r="L203" s="9"/>
       <c r="M203" s="9"/>
       <c r="N203" s="9"/>
@@ -6747,11 +6746,11 @@
       <c r="U203" s="9"/>
     </row>
     <row r="204" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A204" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B204" s="20" t="s">
-        <v>27</v>
+      <c r="A204" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B204" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="C204" s="9"/>
       <c r="D204" s="9"/>
@@ -6760,8 +6759,8 @@
       <c r="G204" s="10"/>
       <c r="H204" s="10"/>
       <c r="I204" s="10"/>
-      <c r="J204" s="13"/>
-      <c r="K204" s="13"/>
+      <c r="J204" s="12"/>
+      <c r="K204" s="12"/>
       <c r="L204" s="9"/>
       <c r="M204" s="9"/>
       <c r="N204" s="9"/>
@@ -6774,11 +6773,11 @@
       <c r="U204" s="9"/>
     </row>
     <row r="205" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A205" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B205" s="20" t="s">
-        <v>29</v>
+      <c r="A205" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B205" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="C205" s="9"/>
       <c r="D205" s="9"/>
@@ -6791,8 +6790,8 @@
         <v>1</v>
       </c>
       <c r="I205" s="10"/>
-      <c r="J205" s="13"/>
-      <c r="K205" s="13"/>
+      <c r="J205" s="12"/>
+      <c r="K205" s="12"/>
       <c r="L205" s="9"/>
       <c r="M205" s="9"/>
       <c r="N205" s="9"/>
@@ -6805,11 +6804,11 @@
       <c r="U205" s="9"/>
     </row>
     <row r="206" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A206" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B206" s="20" t="s">
-        <v>31</v>
+      <c r="A206" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B206" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="C206" s="9"/>
       <c r="D206" s="9"/>
@@ -6820,8 +6819,8 @@
       </c>
       <c r="H206" s="10"/>
       <c r="I206" s="10"/>
-      <c r="J206" s="13"/>
-      <c r="K206" s="13"/>
+      <c r="J206" s="12"/>
+      <c r="K206" s="12"/>
       <c r="L206" s="9"/>
       <c r="M206" s="9"/>
       <c r="N206" s="9"/>
@@ -6834,11 +6833,11 @@
       <c r="U206" s="9"/>
     </row>
     <row r="207" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A207" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B207" s="20" t="s">
-        <v>33</v>
+      <c r="A207" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B207" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="C207" s="9"/>
       <c r="D207" s="9"/>
@@ -6849,8 +6848,8 @@
       </c>
       <c r="H207" s="10"/>
       <c r="I207" s="10"/>
-      <c r="J207" s="13"/>
-      <c r="K207" s="13"/>
+      <c r="J207" s="12"/>
+      <c r="K207" s="12"/>
       <c r="L207" s="9"/>
       <c r="M207" s="9"/>
       <c r="N207" s="9"/>
@@ -6863,11 +6862,11 @@
       <c r="U207" s="9"/>
     </row>
     <row r="208" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A208" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B208" s="20" t="s">
-        <v>35</v>
+      <c r="A208" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B208" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="C208" s="9"/>
       <c r="D208" s="9"/>
@@ -6876,8 +6875,8 @@
       <c r="G208" s="10"/>
       <c r="H208" s="10"/>
       <c r="I208" s="10"/>
-      <c r="J208" s="13"/>
-      <c r="K208" s="13"/>
+      <c r="J208" s="12"/>
+      <c r="K208" s="12"/>
       <c r="L208" s="9"/>
       <c r="M208" s="9"/>
       <c r="N208" s="9"/>
@@ -6890,11 +6889,11 @@
       <c r="U208" s="9"/>
     </row>
     <row r="209" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A209" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B209" s="20" t="s">
-        <v>37</v>
+      <c r="A209" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B209" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="C209" s="9"/>
       <c r="D209" s="9"/>
@@ -6903,8 +6902,8 @@
       <c r="G209" s="10"/>
       <c r="H209" s="10"/>
       <c r="I209" s="10"/>
-      <c r="J209" s="13"/>
-      <c r="K209" s="13"/>
+      <c r="J209" s="12"/>
+      <c r="K209" s="12"/>
       <c r="L209" s="9"/>
       <c r="M209" s="9"/>
       <c r="N209" s="9"/>
@@ -6917,11 +6916,11 @@
       <c r="U209" s="9"/>
     </row>
     <row r="210" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A210" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B210" s="20" t="s">
-        <v>39</v>
+      <c r="A210" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B210" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="C210" s="9"/>
       <c r="D210" s="9"/>
@@ -6930,8 +6929,8 @@
       <c r="G210" s="10"/>
       <c r="H210" s="10"/>
       <c r="I210" s="10"/>
-      <c r="J210" s="13"/>
-      <c r="K210" s="13"/>
+      <c r="J210" s="12"/>
+      <c r="K210" s="12"/>
       <c r="L210" s="9"/>
       <c r="M210" s="9"/>
       <c r="N210" s="9"/>
@@ -6945,10 +6944,10 @@
     </row>
     <row r="211" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A211" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B211" s="20" t="s">
-        <v>40</v>
+        <v>21</v>
+      </c>
+      <c r="B211" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="C211" s="9"/>
       <c r="D211" s="9"/>
@@ -6972,10 +6971,10 @@
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A212" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B212" s="20" t="s">
-        <v>41</v>
+        <v>21</v>
+      </c>
+      <c r="B212" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="C212" s="9"/>
       <c r="D212" s="9"/>
@@ -6999,10 +6998,10 @@
     </row>
     <row r="213" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A213" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B213" s="20" t="s">
-        <v>42</v>
+        <v>21</v>
+      </c>
+      <c r="B213" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="C213" s="9"/>
       <c r="D213" s="9"/>
@@ -7028,10 +7027,10 @@
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A214" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B214" s="20" t="s">
-        <v>44</v>
+        <v>21</v>
+      </c>
+      <c r="B214" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="C214" s="9"/>
       <c r="D214" s="9"/>
@@ -7057,10 +7056,10 @@
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A215" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B215" s="20" t="s">
-        <v>46</v>
+        <v>21</v>
+      </c>
+      <c r="B215" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="C215" s="9"/>
       <c r="D215" s="9"/>
@@ -7084,10 +7083,10 @@
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A216" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B216" s="20" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="B216" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="C216" s="9"/>
       <c r="D216" s="9"/>
@@ -7117,10 +7116,10 @@
     </row>
     <row r="217" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A217" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B217" s="20" t="s">
-        <v>50</v>
+        <v>21</v>
+      </c>
+      <c r="B217" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="C217" s="9"/>
       <c r="D217" s="9"/>
@@ -7148,10 +7147,10 @@
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A218" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B218" s="20" t="s">
-        <v>52</v>
+        <v>21</v>
+      </c>
+      <c r="B218" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="C218" s="9"/>
       <c r="D218" s="9"/>
@@ -7179,10 +7178,10 @@
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A219" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B219" s="20" t="s">
-        <v>54</v>
+        <v>21</v>
+      </c>
+      <c r="B219" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="C219" s="9"/>
       <c r="D219" s="9"/>
@@ -7210,10 +7209,10 @@
     </row>
     <row r="220" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A220" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B220" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="B220" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="C220" s="9"/>
       <c r="D220" s="9"/>
@@ -7243,10 +7242,10 @@
     </row>
     <row r="221" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A221" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B221" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="B221" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="C221" s="9"/>
       <c r="D221" s="9"/>
@@ -7276,18 +7275,18 @@
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A222" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B222" s="20" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="B222" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="C222" s="9"/>
       <c r="D222" s="9"/>
       <c r="E222" s="9"/>
-      <c r="F222" s="14"/>
-      <c r="G222" s="14"/>
-      <c r="H222" s="14"/>
-      <c r="I222" s="14"/>
+      <c r="F222" s="13"/>
+      <c r="G222" s="13"/>
+      <c r="H222" s="13"/>
+      <c r="I222" s="13"/>
       <c r="J222" s="9"/>
       <c r="K222" s="9"/>
       <c r="L222" s="9"/>
@@ -7303,10 +7302,10 @@
     </row>
     <row r="223" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A223" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B223" s="19" t="s">
         <v>24</v>
-      </c>
-      <c r="B223" s="20" t="s">
-        <v>27</v>
       </c>
       <c r="C223" s="9"/>
       <c r="D223" s="9"/>
@@ -7330,10 +7329,10 @@
     </row>
     <row r="224" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A224" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B224" s="20" t="s">
-        <v>29</v>
+        <v>21</v>
+      </c>
+      <c r="B224" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="C224" s="9"/>
       <c r="D224" s="9"/>
@@ -7361,10 +7360,10 @@
     </row>
     <row r="225" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A225" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B225" s="20" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="B225" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="C225" s="9"/>
       <c r="D225" s="9"/>
@@ -7390,10 +7389,10 @@
     </row>
     <row r="226" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A226" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B226" s="20" t="s">
-        <v>33</v>
+        <v>21</v>
+      </c>
+      <c r="B226" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="C226" s="9"/>
       <c r="D226" s="9"/>
@@ -7419,10 +7418,10 @@
     </row>
     <row r="227" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A227" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B227" s="20" t="s">
-        <v>35</v>
+        <v>21</v>
+      </c>
+      <c r="B227" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="C227" s="9"/>
       <c r="D227" s="9"/>
@@ -7446,10 +7445,10 @@
     </row>
     <row r="228" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A228" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B228" s="20" t="s">
-        <v>37</v>
+        <v>21</v>
+      </c>
+      <c r="B228" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="C228" s="9"/>
       <c r="D228" s="9"/>
@@ -7475,10 +7474,10 @@
     </row>
     <row r="229" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A229" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B229" s="20" t="s">
-        <v>39</v>
+        <v>21</v>
+      </c>
+      <c r="B229" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="C229" s="9"/>
       <c r="D229" s="9"/>
@@ -7503,11 +7502,11 @@
       <c r="U229" s="9"/>
     </row>
     <row r="230" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A230" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B230" s="20" t="s">
-        <v>40</v>
+      <c r="A230" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B230" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="C230" s="10"/>
       <c r="D230" s="10"/>
@@ -7533,11 +7532,11 @@
       </c>
     </row>
     <row r="231" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A231" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B231" s="20" t="s">
-        <v>41</v>
+      <c r="A231" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B231" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="C231" s="10"/>
       <c r="D231" s="10"/>
@@ -7560,11 +7559,11 @@
       <c r="U231" s="9"/>
     </row>
     <row r="232" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A232" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B232" s="20" t="s">
-        <v>42</v>
+      <c r="A232" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B232" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="C232" s="10"/>
       <c r="D232" s="10"/>
@@ -7587,11 +7586,11 @@
       <c r="U232" s="9"/>
     </row>
     <row r="233" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A233" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B233" s="20" t="s">
-        <v>44</v>
+      <c r="A233" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B233" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="C233" s="10"/>
       <c r="D233" s="10"/>
@@ -7614,11 +7613,11 @@
       <c r="U233" s="9"/>
     </row>
     <row r="234" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A234" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B234" s="20" t="s">
-        <v>46</v>
+      <c r="A234" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B234" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="C234" s="10"/>
       <c r="D234" s="10"/>
@@ -7644,11 +7643,11 @@
       </c>
     </row>
     <row r="235" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A235" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B235" s="20" t="s">
-        <v>48</v>
+      <c r="A235" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B235" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="C235" s="10"/>
       <c r="D235" s="10"/>
@@ -7671,11 +7670,11 @@
       <c r="U235" s="9"/>
     </row>
     <row r="236" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A236" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B236" s="20" t="s">
-        <v>50</v>
+      <c r="A236" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B236" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="C236" s="10"/>
       <c r="D236" s="10"/>
@@ -7698,11 +7697,11 @@
       <c r="U236" s="9"/>
     </row>
     <row r="237" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A237" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B237" s="20" t="s">
-        <v>52</v>
+      <c r="A237" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B237" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="C237" s="10"/>
       <c r="D237" s="10"/>
@@ -7725,11 +7724,11 @@
       <c r="U237" s="9"/>
     </row>
     <row r="238" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A238" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B238" s="20" t="s">
-        <v>54</v>
+      <c r="A238" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B238" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="C238" s="10"/>
       <c r="D238" s="10"/>
@@ -7752,11 +7751,11 @@
       <c r="U238" s="9"/>
     </row>
     <row r="239" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A239" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B239" s="20" t="s">
-        <v>22</v>
+      <c r="A239" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B239" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="C239" s="10"/>
       <c r="D239" s="10"/>
@@ -7779,11 +7778,11 @@
       <c r="U239" s="9"/>
     </row>
     <row r="240" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A240" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B240" s="20" t="s">
+      <c r="A240" s="14" t="s">
         <v>23</v>
+      </c>
+      <c r="B240" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="C240" s="10"/>
       <c r="D240" s="10"/>
@@ -7806,11 +7805,11 @@
       <c r="U240" s="9"/>
     </row>
     <row r="241" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A241" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B241" s="20" t="s">
-        <v>25</v>
+      <c r="A241" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B241" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="C241" s="10"/>
       <c r="D241" s="10"/>
@@ -7833,23 +7832,23 @@
       <c r="U241" s="9"/>
     </row>
     <row r="242" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A242" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B242" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C242" s="12"/>
-      <c r="D242" s="12"/>
+      <c r="A242" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B242" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C242" s="11"/>
+      <c r="D242" s="11"/>
       <c r="E242" s="9"/>
       <c r="F242" s="9"/>
-      <c r="G242" s="12"/>
+      <c r="G242" s="11"/>
       <c r="H242" s="9"/>
       <c r="I242" s="9"/>
       <c r="J242" s="9"/>
-      <c r="K242" s="12"/>
-      <c r="L242" s="12"/>
-      <c r="M242" s="12"/>
+      <c r="K242" s="11"/>
+      <c r="L242" s="11"/>
+      <c r="M242" s="11"/>
       <c r="N242" s="9"/>
       <c r="O242" s="9"/>
       <c r="P242" s="9"/>
@@ -7860,11 +7859,11 @@
       <c r="U242" s="9"/>
     </row>
     <row r="243" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A243" s="15" t="s">
+      <c r="A243" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B243" s="19" t="s">
         <v>26</v>
-      </c>
-      <c r="B243" s="20" t="s">
-        <v>29</v>
       </c>
       <c r="C243" s="10"/>
       <c r="D243" s="10"/>
@@ -7887,11 +7886,11 @@
       <c r="U243" s="9"/>
     </row>
     <row r="244" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A244" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B244" s="20" t="s">
-        <v>31</v>
+      <c r="A244" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B244" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="C244" s="10"/>
       <c r="D244" s="10"/>
@@ -7914,11 +7913,11 @@
       <c r="U244" s="9"/>
     </row>
     <row r="245" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A245" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B245" s="20" t="s">
-        <v>33</v>
+      <c r="A245" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B245" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="C245" s="10"/>
       <c r="D245" s="10"/>
@@ -7941,11 +7940,11 @@
       <c r="U245" s="9"/>
     </row>
     <row r="246" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A246" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B246" s="20" t="s">
-        <v>35</v>
+      <c r="A246" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B246" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="C246" s="10"/>
       <c r="D246" s="10"/>
@@ -7971,11 +7970,11 @@
       </c>
     </row>
     <row r="247" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A247" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B247" s="20" t="s">
-        <v>37</v>
+      <c r="A247" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B247" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="C247" s="10"/>
       <c r="D247" s="10"/>
@@ -7998,14 +7997,14 @@
       <c r="U247" s="9"/>
     </row>
     <row r="248" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A248" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B248" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C248" s="16"/>
-      <c r="D248" s="16"/>
+      <c r="A248" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B248" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C248" s="15"/>
+      <c r="D248" s="15"/>
       <c r="E248" s="9"/>
       <c r="F248" s="9"/>
       <c r="G248" s="10"/>
@@ -8026,10 +8025,10 @@
     </row>
     <row r="249" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B249" s="20" t="s">
-        <v>40</v>
+        <v>25</v>
+      </c>
+      <c r="B249" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="C249" s="10"/>
       <c r="D249" s="10"/>
@@ -8053,10 +8052,10 @@
     </row>
     <row r="250" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A250" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B250" s="20" t="s">
-        <v>41</v>
+        <v>25</v>
+      </c>
+      <c r="B250" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="C250" s="10"/>
       <c r="D250" s="10"/>
@@ -8080,10 +8079,10 @@
     </row>
     <row r="251" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A251" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B251" s="20" t="s">
-        <v>42</v>
+        <v>25</v>
+      </c>
+      <c r="B251" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="C251" s="10"/>
       <c r="D251" s="10"/>
@@ -8107,10 +8106,10 @@
     </row>
     <row r="252" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A252" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B252" s="20" t="s">
-        <v>44</v>
+        <v>25</v>
+      </c>
+      <c r="B252" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="C252" s="10"/>
       <c r="D252" s="10"/>
@@ -8134,10 +8133,10 @@
     </row>
     <row r="253" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A253" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B253" s="20" t="s">
-        <v>46</v>
+        <v>25</v>
+      </c>
+      <c r="B253" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="C253" s="10"/>
       <c r="D253" s="10"/>
@@ -8161,10 +8160,10 @@
     </row>
     <row r="254" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A254" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B254" s="20" t="s">
-        <v>48</v>
+        <v>25</v>
+      </c>
+      <c r="B254" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="C254" s="10"/>
       <c r="D254" s="10"/>
@@ -8194,10 +8193,10 @@
     </row>
     <row r="255" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A255" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B255" s="20" t="s">
-        <v>50</v>
+        <v>25</v>
+      </c>
+      <c r="B255" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="C255" s="10"/>
       <c r="D255" s="10"/>
@@ -8221,10 +8220,10 @@
     </row>
     <row r="256" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A256" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B256" s="20" t="s">
-        <v>52</v>
+        <v>25</v>
+      </c>
+      <c r="B256" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="C256" s="10"/>
       <c r="D256" s="10"/>
@@ -8248,10 +8247,10 @@
     </row>
     <row r="257" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A257" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B257" s="20" t="s">
-        <v>54</v>
+        <v>25</v>
+      </c>
+      <c r="B257" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="C257" s="10"/>
       <c r="D257" s="10"/>
@@ -8275,10 +8274,10 @@
     </row>
     <row r="258" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A258" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B258" s="20" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="B258" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="C258" s="10"/>
       <c r="D258" s="10"/>
@@ -8302,10 +8301,10 @@
     </row>
     <row r="259" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A259" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B259" s="20" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="B259" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="C259" s="10"/>
       <c r="D259" s="10"/>
@@ -8329,10 +8328,10 @@
     </row>
     <row r="260" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A260" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B260" s="20" t="s">
         <v>25</v>
+      </c>
+      <c r="B260" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="C260" s="10"/>
       <c r="D260" s="10"/>
@@ -8356,10 +8355,10 @@
     </row>
     <row r="261" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A261" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B261" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="B261" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="C261" s="10"/>
       <c r="D261" s="10"/>
@@ -8383,22 +8382,22 @@
     </row>
     <row r="262" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A262" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B262" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C262" s="14"/>
-      <c r="D262" s="14"/>
+        <v>25</v>
+      </c>
+      <c r="B262" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C262" s="13"/>
+      <c r="D262" s="13"/>
       <c r="E262" s="10"/>
       <c r="F262" s="10"/>
-      <c r="G262" s="14"/>
+      <c r="G262" s="13"/>
       <c r="H262" s="10"/>
       <c r="I262" s="9"/>
-      <c r="J262" s="14"/>
-      <c r="K262" s="14"/>
+      <c r="J262" s="13"/>
+      <c r="K262" s="13"/>
       <c r="L262" s="9"/>
-      <c r="M262" s="14"/>
+      <c r="M262" s="13"/>
       <c r="N262" s="9"/>
       <c r="O262" s="9"/>
       <c r="P262" s="9"/>
@@ -8410,10 +8409,10 @@
     </row>
     <row r="263" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A263" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B263" s="19" t="s">
         <v>28</v>
-      </c>
-      <c r="B263" s="20" t="s">
-        <v>31</v>
       </c>
       <c r="C263" s="10">
         <v>1</v>
@@ -8441,10 +8440,10 @@
     </row>
     <row r="264" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A264" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B264" s="20" t="s">
-        <v>33</v>
+        <v>25</v>
+      </c>
+      <c r="B264" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="C264" s="10"/>
       <c r="D264" s="10">
@@ -8470,10 +8469,10 @@
     </row>
     <row r="265" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A265" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B265" s="20" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="B265" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="C265" s="10"/>
       <c r="D265" s="10"/>
@@ -8497,10 +8496,10 @@
     </row>
     <row r="266" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A266" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B266" s="20" t="s">
-        <v>37</v>
+        <v>25</v>
+      </c>
+      <c r="B266" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="C266" s="10"/>
       <c r="D266" s="10"/>
@@ -8526,10 +8525,10 @@
     </row>
     <row r="267" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B267" s="20" t="s">
-        <v>39</v>
+        <v>25</v>
+      </c>
+      <c r="B267" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="C267" s="10"/>
       <c r="D267" s="10"/>
@@ -8552,11 +8551,11 @@
       <c r="U267" s="9"/>
     </row>
     <row r="268" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A268" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B268" s="20" t="s">
-        <v>40</v>
+      <c r="A268" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B268" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="C268" s="10"/>
       <c r="D268" s="10"/>
@@ -8579,11 +8578,11 @@
       <c r="U268" s="9"/>
     </row>
     <row r="269" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A269" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B269" s="20" t="s">
-        <v>41</v>
+      <c r="A269" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B269" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="C269" s="10"/>
       <c r="D269" s="10"/>
@@ -8610,11 +8609,11 @@
       <c r="U269" s="9"/>
     </row>
     <row r="270" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A270" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B270" s="20" t="s">
-        <v>42</v>
+      <c r="A270" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B270" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="C270" s="10"/>
       <c r="D270" s="10"/>
@@ -8641,11 +8640,11 @@
       <c r="U270" s="9"/>
     </row>
     <row r="271" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A271" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B271" s="20" t="s">
-        <v>44</v>
+      <c r="A271" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B271" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="C271" s="10"/>
       <c r="D271" s="10"/>
@@ -8672,11 +8671,11 @@
       <c r="U271" s="9"/>
     </row>
     <row r="272" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A272" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B272" s="20" t="s">
-        <v>46</v>
+      <c r="A272" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B272" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="C272" s="10"/>
       <c r="D272" s="10"/>
@@ -8699,11 +8698,11 @@
       <c r="U272" s="9"/>
     </row>
     <row r="273" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A273" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B273" s="20" t="s">
-        <v>48</v>
+      <c r="A273" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B273" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="C273" s="10"/>
       <c r="D273" s="10"/>
@@ -8732,11 +8731,11 @@
       <c r="U273" s="9"/>
     </row>
     <row r="274" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A274" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B274" s="20" t="s">
-        <v>50</v>
+      <c r="A274" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B274" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="C274" s="10"/>
       <c r="D274" s="10"/>
@@ -8759,11 +8758,11 @@
       <c r="U274" s="9"/>
     </row>
     <row r="275" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A275" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B275" s="20" t="s">
-        <v>52</v>
+      <c r="A275" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B275" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="C275" s="10"/>
       <c r="D275" s="10"/>
@@ -8786,11 +8785,11 @@
       <c r="U275" s="9"/>
     </row>
     <row r="276" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A276" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B276" s="20" t="s">
-        <v>54</v>
+      <c r="A276" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B276" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="C276" s="10"/>
       <c r="D276" s="10"/>
@@ -8813,11 +8812,11 @@
       <c r="U276" s="9"/>
     </row>
     <row r="277" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A277" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B277" s="20" t="s">
-        <v>22</v>
+      <c r="A277" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B277" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="C277" s="10"/>
       <c r="D277" s="10"/>
@@ -8840,11 +8839,11 @@
       <c r="U277" s="9"/>
     </row>
     <row r="278" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A278" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B278" s="20" t="s">
-        <v>23</v>
+      <c r="A278" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B278" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="C278" s="10"/>
       <c r="D278" s="10"/>
@@ -8871,11 +8870,11 @@
       <c r="U278" s="9"/>
     </row>
     <row r="279" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A279" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B279" s="20" t="s">
-        <v>25</v>
+      <c r="A279" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B279" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="C279" s="10"/>
       <c r="D279" s="10"/>
@@ -8898,11 +8897,11 @@
       <c r="U279" s="9"/>
     </row>
     <row r="280" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A280" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B280" s="20" t="s">
+      <c r="A280" s="21" t="s">
         <v>27</v>
+      </c>
+      <c r="B280" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="C280" s="10"/>
       <c r="D280" s="10"/>
@@ -8925,11 +8924,11 @@
       <c r="U280" s="9"/>
     </row>
     <row r="281" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A281" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B281" s="20" t="s">
-        <v>29</v>
+      <c r="A281" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B281" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="C281" s="10"/>
       <c r="D281" s="10"/>
@@ -8958,25 +8957,25 @@
       <c r="U281" s="9"/>
     </row>
     <row r="282" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A282" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B282" s="20" t="s">
-        <v>31</v>
+      <c r="A282" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B282" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="C282" s="10"/>
       <c r="D282" s="10"/>
       <c r="E282" s="10"/>
       <c r="F282" s="10"/>
-      <c r="G282" s="12"/>
+      <c r="G282" s="11"/>
       <c r="H282" s="10"/>
       <c r="I282" s="9"/>
       <c r="J282" s="9"/>
       <c r="K282" s="9"/>
       <c r="L282" s="9"/>
-      <c r="M282" s="12"/>
-      <c r="N282" s="12"/>
-      <c r="O282" s="12"/>
+      <c r="M282" s="11"/>
+      <c r="N282" s="11"/>
+      <c r="O282" s="11"/>
       <c r="P282" s="9"/>
       <c r="Q282" s="9"/>
       <c r="R282" s="9"/>
@@ -8985,11 +8984,11 @@
       <c r="U282" s="9"/>
     </row>
     <row r="283" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A283" s="22" t="s">
+      <c r="A283" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B283" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="B283" s="20" t="s">
-        <v>33</v>
       </c>
       <c r="C283" s="10"/>
       <c r="D283" s="10"/>
@@ -9016,11 +9015,11 @@
       <c r="U283" s="9"/>
     </row>
     <row r="284" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A284" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B284" s="20" t="s">
-        <v>35</v>
+      <c r="A284" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B284" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="C284" s="10"/>
       <c r="D284" s="10"/>
@@ -9043,11 +9042,11 @@
       <c r="U284" s="9"/>
     </row>
     <row r="285" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A285" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B285" s="20" t="s">
-        <v>37</v>
+      <c r="A285" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B285" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="C285" s="10"/>
       <c r="D285" s="10"/>
@@ -9070,11 +9069,11 @@
       <c r="U285" s="9"/>
     </row>
     <row r="286" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A286" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B286" s="20" t="s">
-        <v>39</v>
+      <c r="A286" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B286" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="C286" s="10"/>
       <c r="D286" s="10"/>
@@ -9098,10 +9097,10 @@
     </row>
     <row r="287" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B287" s="20" t="s">
-        <v>40</v>
+        <v>29</v>
+      </c>
+      <c r="B287" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="C287" s="9"/>
       <c r="D287" s="9"/>
@@ -9125,10 +9124,10 @@
     </row>
     <row r="288" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A288" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B288" s="20" t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c r="B288" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="C288" s="9"/>
       <c r="D288" s="9"/>
@@ -9158,10 +9157,10 @@
     </row>
     <row r="289" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A289" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B289" s="20" t="s">
-        <v>42</v>
+        <v>29</v>
+      </c>
+      <c r="B289" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="C289" s="9"/>
       <c r="D289" s="9"/>
@@ -9191,10 +9190,10 @@
     </row>
     <row r="290" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A290" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B290" s="20" t="s">
-        <v>44</v>
+        <v>29</v>
+      </c>
+      <c r="B290" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="C290" s="9"/>
       <c r="D290" s="9"/>
@@ -9224,10 +9223,10 @@
     </row>
     <row r="291" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A291" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B291" s="20" t="s">
-        <v>46</v>
+        <v>29</v>
+      </c>
+      <c r="B291" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="C291" s="9"/>
       <c r="D291" s="9"/>
@@ -9251,10 +9250,10 @@
     </row>
     <row r="292" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A292" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B292" s="20" t="s">
-        <v>48</v>
+        <v>29</v>
+      </c>
+      <c r="B292" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="C292" s="9"/>
       <c r="D292" s="9"/>
@@ -9284,10 +9283,10 @@
     </row>
     <row r="293" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A293" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B293" s="20" t="s">
-        <v>50</v>
+        <v>29</v>
+      </c>
+      <c r="B293" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="C293" s="9"/>
       <c r="D293" s="9"/>
@@ -9317,10 +9316,10 @@
     </row>
     <row r="294" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A294" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B294" s="20" t="s">
-        <v>52</v>
+        <v>29</v>
+      </c>
+      <c r="B294" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="C294" s="9"/>
       <c r="D294" s="9"/>
@@ -9350,10 +9349,10 @@
     </row>
     <row r="295" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B295" s="20" t="s">
-        <v>54</v>
+        <v>29</v>
+      </c>
+      <c r="B295" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="C295" s="9"/>
       <c r="D295" s="9"/>
@@ -9383,10 +9382,10 @@
     </row>
     <row r="296" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B296" s="20" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="B296" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="C296" s="9"/>
       <c r="D296" s="9"/>
@@ -9410,10 +9409,10 @@
     </row>
     <row r="297" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B297" s="20" t="s">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="B297" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="C297" s="9"/>
       <c r="D297" s="9"/>
@@ -9441,10 +9440,10 @@
     </row>
     <row r="298" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A298" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B298" s="20" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="B298" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="C298" s="9"/>
       <c r="D298" s="9"/>
@@ -9472,10 +9471,10 @@
     </row>
     <row r="299" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A299" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B299" s="20" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="B299" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="C299" s="9"/>
       <c r="D299" s="9"/>
@@ -9499,10 +9498,10 @@
     </row>
     <row r="300" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A300" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B300" s="20" t="s">
         <v>29</v>
+      </c>
+      <c r="B300" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="C300" s="9"/>
       <c r="D300" s="9"/>
@@ -9532,10 +9531,10 @@
     </row>
     <row r="301" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A301" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B301" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="B301" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="C301" s="9"/>
       <c r="D301" s="9"/>
@@ -9565,10 +9564,10 @@
     </row>
     <row r="302" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A302" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B302" s="20" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="B302" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="C302" s="9"/>
       <c r="D302" s="9"/>
@@ -9579,23 +9578,23 @@
       <c r="I302" s="9"/>
       <c r="J302" s="9"/>
       <c r="K302" s="9"/>
-      <c r="L302" s="12"/>
+      <c r="L302" s="11"/>
       <c r="M302" s="9"/>
       <c r="N302" s="9"/>
       <c r="O302" s="9"/>
-      <c r="P302" s="12"/>
-      <c r="Q302" s="12"/>
-      <c r="R302" s="12"/>
+      <c r="P302" s="11"/>
+      <c r="Q302" s="11"/>
+      <c r="R302" s="11"/>
       <c r="S302" s="9"/>
       <c r="T302" s="9"/>
       <c r="U302" s="9"/>
     </row>
     <row r="303" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A303" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B303" s="19" t="s">
         <v>32</v>
-      </c>
-      <c r="B303" s="20" t="s">
-        <v>35</v>
       </c>
       <c r="C303" s="9"/>
       <c r="D303" s="9"/>
@@ -9619,10 +9618,10 @@
     </row>
     <row r="304" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A304" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B304" s="20" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="B304" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="C304" s="9"/>
       <c r="D304" s="9"/>
@@ -9646,10 +9645,10 @@
     </row>
     <row r="305" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A305" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B305" s="20" t="s">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="B305" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="C305" s="9"/>
       <c r="D305" s="9"/>
@@ -9673,10 +9672,10 @@
     </row>
     <row r="306" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A306" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B306" s="20" t="s">
-        <v>40</v>
+        <v>31</v>
+      </c>
+      <c r="B306" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="C306" s="10"/>
       <c r="D306" s="9"/>
@@ -9703,10 +9702,10 @@
     </row>
     <row r="307" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A307" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B307" s="20" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="B307" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="C307" s="10"/>
       <c r="D307" s="9"/>
@@ -9730,10 +9729,10 @@
     </row>
     <row r="308" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A308" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B308" s="20" t="s">
-        <v>42</v>
+        <v>31</v>
+      </c>
+      <c r="B308" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="C308" s="10"/>
       <c r="D308" s="9"/>
@@ -9757,10 +9756,10 @@
     </row>
     <row r="309" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A309" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B309" s="20" t="s">
-        <v>44</v>
+        <v>31</v>
+      </c>
+      <c r="B309" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="C309" s="10"/>
       <c r="D309" s="9"/>
@@ -9784,10 +9783,10 @@
     </row>
     <row r="310" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A310" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B310" s="20" t="s">
-        <v>46</v>
+        <v>31</v>
+      </c>
+      <c r="B310" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="C310" s="10"/>
       <c r="D310" s="9"/>
@@ -9814,10 +9813,10 @@
     </row>
     <row r="311" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A311" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B311" s="20" t="s">
-        <v>48</v>
+        <v>31</v>
+      </c>
+      <c r="B311" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="C311" s="10"/>
       <c r="D311" s="9"/>
@@ -9841,10 +9840,10 @@
     </row>
     <row r="312" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A312" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B312" s="20" t="s">
-        <v>50</v>
+        <v>31</v>
+      </c>
+      <c r="B312" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="C312" s="10"/>
       <c r="D312" s="9"/>
@@ -9868,10 +9867,10 @@
     </row>
     <row r="313" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A313" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B313" s="20" t="s">
-        <v>52</v>
+        <v>31</v>
+      </c>
+      <c r="B313" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="C313" s="10"/>
       <c r="D313" s="9"/>
@@ -9895,10 +9894,10 @@
     </row>
     <row r="314" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A314" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B314" s="20" t="s">
-        <v>54</v>
+        <v>31</v>
+      </c>
+      <c r="B314" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="C314" s="10"/>
       <c r="D314" s="9"/>
@@ -9922,10 +9921,10 @@
     </row>
     <row r="315" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A315" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B315" s="20" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="B315" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="C315" s="10"/>
       <c r="D315" s="9"/>
@@ -9949,10 +9948,10 @@
     </row>
     <row r="316" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A316" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B316" s="20" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="B316" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="C316" s="10"/>
       <c r="D316" s="9"/>
@@ -9976,10 +9975,10 @@
     </row>
     <row r="317" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A317" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B317" s="20" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="B317" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="C317" s="10"/>
       <c r="D317" s="9"/>
@@ -10003,10 +10002,10 @@
     </row>
     <row r="318" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A318" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B318" s="20" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="B318" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="C318" s="10"/>
       <c r="D318" s="9"/>
@@ -10033,10 +10032,10 @@
     </row>
     <row r="319" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A319" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B319" s="20" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="B319" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="C319" s="10"/>
       <c r="D319" s="9"/>
@@ -10060,10 +10059,10 @@
     </row>
     <row r="320" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A320" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B320" s="20" t="s">
         <v>31</v>
+      </c>
+      <c r="B320" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="C320" s="10"/>
       <c r="D320" s="9"/>
@@ -10087,10 +10086,10 @@
     </row>
     <row r="321" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A321" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B321" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="B321" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="C321" s="10"/>
       <c r="D321" s="9"/>
@@ -10114,15 +10113,15 @@
     </row>
     <row r="322" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A322" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B322" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C322" s="12"/>
+        <v>31</v>
+      </c>
+      <c r="B322" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C322" s="11"/>
       <c r="D322" s="9"/>
       <c r="E322" s="9"/>
-      <c r="F322" s="12"/>
+      <c r="F322" s="11"/>
       <c r="G322" s="9"/>
       <c r="H322" s="10"/>
       <c r="I322" s="9"/>
@@ -10135,16 +10134,16 @@
       <c r="P322" s="9"/>
       <c r="Q322" s="9"/>
       <c r="R322" s="9"/>
-      <c r="S322" s="12"/>
-      <c r="T322" s="12"/>
-      <c r="U322" s="12"/>
+      <c r="S322" s="11"/>
+      <c r="T322" s="11"/>
+      <c r="U322" s="11"/>
     </row>
     <row r="323" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A323" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B323" s="19" t="s">
         <v>34</v>
-      </c>
-      <c r="B323" s="20" t="s">
-        <v>37</v>
       </c>
       <c r="C323" s="10"/>
       <c r="D323" s="9"/>
@@ -10168,10 +10167,10 @@
     </row>
     <row r="324" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A324" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B324" s="20" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="B324" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="C324" s="10"/>
       <c r="D324" s="9"/>
@@ -10195,10 +10194,10 @@
     </row>
     <row r="325" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A325" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B325" s="20" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="B325" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="C325" s="9"/>
       <c r="D325" s="10"/>
@@ -10222,10 +10221,10 @@
     </row>
     <row r="326" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A326" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B326" s="20" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="B326" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="C326" s="9"/>
       <c r="D326" s="10">
@@ -10253,10 +10252,10 @@
     </row>
     <row r="327" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A327" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B327" s="20" t="s">
-        <v>42</v>
+        <v>33</v>
+      </c>
+      <c r="B327" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="C327" s="9"/>
       <c r="D327" s="10">
@@ -10284,10 +10283,10 @@
     </row>
     <row r="328" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A328" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B328" s="20" t="s">
-        <v>44</v>
+        <v>33</v>
+      </c>
+      <c r="B328" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="C328" s="9"/>
       <c r="D328" s="10">
@@ -10317,10 +10316,10 @@
     </row>
     <row r="329" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A329" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B329" s="20" t="s">
-        <v>46</v>
+        <v>33</v>
+      </c>
+      <c r="B329" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="C329" s="9"/>
       <c r="D329" s="10"/>
@@ -10344,10 +10343,10 @@
     </row>
     <row r="330" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A330" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B330" s="20" t="s">
-        <v>48</v>
+        <v>33</v>
+      </c>
+      <c r="B330" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="C330" s="9"/>
       <c r="D330" s="10"/>
@@ -10371,10 +10370,10 @@
     </row>
     <row r="331" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A331" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B331" s="20" t="s">
-        <v>50</v>
+        <v>33</v>
+      </c>
+      <c r="B331" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="C331" s="9"/>
       <c r="D331" s="10"/>
@@ -10398,10 +10397,10 @@
     </row>
     <row r="332" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A332" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B332" s="20" t="s">
-        <v>52</v>
+        <v>33</v>
+      </c>
+      <c r="B332" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="C332" s="9"/>
       <c r="D332" s="10"/>
@@ -10425,10 +10424,10 @@
     </row>
     <row r="333" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A333" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B333" s="20" t="s">
-        <v>54</v>
+        <v>33</v>
+      </c>
+      <c r="B333" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="C333" s="9"/>
       <c r="D333" s="10"/>
@@ -10452,10 +10451,10 @@
     </row>
     <row r="334" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A334" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B334" s="20" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="B334" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="C334" s="9"/>
       <c r="D334" s="10"/>
@@ -10479,10 +10478,10 @@
     </row>
     <row r="335" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A335" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B335" s="20" t="s">
-        <v>23</v>
+        <v>33</v>
+      </c>
+      <c r="B335" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="C335" s="9"/>
       <c r="D335" s="10"/>
@@ -10506,10 +10505,10 @@
     </row>
     <row r="336" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A336" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B336" s="20" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+      <c r="B336" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="C336" s="9"/>
       <c r="D336" s="10"/>
@@ -10535,10 +10534,10 @@
     </row>
     <row r="337" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A337" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B337" s="20" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="B337" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="C337" s="9"/>
       <c r="D337" s="10"/>
@@ -10562,10 +10561,10 @@
     </row>
     <row r="338" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A338" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B338" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="B338" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="C338" s="9"/>
       <c r="D338" s="10"/>
@@ -10589,10 +10588,10 @@
     </row>
     <row r="339" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A339" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B339" s="20" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="B339" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="C339" s="9"/>
       <c r="D339" s="10"/>
@@ -10616,10 +10615,10 @@
     </row>
     <row r="340" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A340" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B340" s="20" t="s">
         <v>33</v>
+      </c>
+      <c r="B340" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="C340" s="9"/>
       <c r="D340" s="10"/>
@@ -10643,10 +10642,10 @@
     </row>
     <row r="341" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A341" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B341" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="B341" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="C341" s="9"/>
       <c r="D341" s="10"/>
@@ -10670,16 +10669,16 @@
     </row>
     <row r="342" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A342" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B342" s="20" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="B342" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="C342" s="9"/>
-      <c r="D342" s="12"/>
+      <c r="D342" s="11"/>
       <c r="E342" s="9"/>
-      <c r="F342" s="12"/>
-      <c r="G342" s="12"/>
+      <c r="F342" s="11"/>
+      <c r="G342" s="11"/>
       <c r="H342" s="10"/>
       <c r="I342" s="9"/>
       <c r="J342" s="9"/>
@@ -10692,15 +10691,15 @@
       <c r="Q342" s="9"/>
       <c r="R342" s="9"/>
       <c r="S342" s="9"/>
-      <c r="T342" s="12"/>
-      <c r="U342" s="12"/>
+      <c r="T342" s="11"/>
+      <c r="U342" s="11"/>
     </row>
     <row r="343" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A343" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B343" s="19" t="s">
         <v>36</v>
-      </c>
-      <c r="B343" s="20" t="s">
-        <v>39</v>
       </c>
       <c r="C343" s="9"/>
       <c r="D343" s="10">
@@ -10731,11 +10730,11 @@
       </c>
     </row>
     <row r="344" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A344" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B344" s="20" t="s">
-        <v>40</v>
+      <c r="A344" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B344" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="C344" s="9"/>
       <c r="D344" s="10"/>
@@ -10758,11 +10757,11 @@
       <c r="U344" s="10"/>
     </row>
     <row r="345" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A345" s="22" t="s">
+      <c r="A345" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B345" s="19" t="s">
         <v>38</v>
-      </c>
-      <c r="B345" s="20" t="s">
-        <v>41</v>
       </c>
       <c r="C345" s="9"/>
       <c r="D345" s="10">
@@ -10789,11 +10788,11 @@
       <c r="U345" s="10"/>
     </row>
     <row r="346" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A346" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B346" s="20" t="s">
-        <v>42</v>
+      <c r="A346" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B346" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="C346" s="9"/>
       <c r="D346" s="10">
@@ -10820,11 +10819,11 @@
       <c r="U346" s="10"/>
     </row>
     <row r="347" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A347" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B347" s="20" t="s">
-        <v>44</v>
+      <c r="A347" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B347" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="C347" s="9"/>
       <c r="D347" s="10">
@@ -10851,11 +10850,11 @@
       <c r="U347" s="10"/>
     </row>
     <row r="348" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A348" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B348" s="20" t="s">
-        <v>46</v>
+      <c r="A348" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B348" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="C348" s="9"/>
       <c r="D348" s="10"/>
@@ -10878,11 +10877,11 @@
       <c r="U348" s="10"/>
     </row>
     <row r="349" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A349" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B349" s="20" t="s">
-        <v>48</v>
+      <c r="A349" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B349" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="C349" s="9"/>
       <c r="D349" s="10"/>
@@ -10907,11 +10906,11 @@
       <c r="U349" s="10"/>
     </row>
     <row r="350" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A350" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B350" s="20" t="s">
-        <v>50</v>
+      <c r="A350" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B350" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="C350" s="9"/>
       <c r="D350" s="10"/>
@@ -10934,11 +10933,11 @@
       <c r="U350" s="10"/>
     </row>
     <row r="351" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A351" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B351" s="20" t="s">
-        <v>52</v>
+      <c r="A351" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B351" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="C351" s="9"/>
       <c r="D351" s="10"/>
@@ -10961,11 +10960,11 @@
       <c r="U351" s="10"/>
     </row>
     <row r="352" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A352" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B352" s="20" t="s">
-        <v>54</v>
+      <c r="A352" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B352" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="C352" s="9"/>
       <c r="D352" s="10"/>
@@ -10988,11 +10987,11 @@
       <c r="U352" s="10"/>
     </row>
     <row r="353" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A353" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B353" s="20" t="s">
-        <v>22</v>
+      <c r="A353" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B353" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="C353" s="9"/>
       <c r="D353" s="10"/>
@@ -11015,11 +11014,11 @@
       <c r="U353" s="10"/>
     </row>
     <row r="354" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A354" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B354" s="20" t="s">
-        <v>23</v>
+      <c r="A354" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B354" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="C354" s="9"/>
       <c r="D354" s="10"/>
@@ -11042,11 +11041,11 @@
       <c r="U354" s="10"/>
     </row>
     <row r="355" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A355" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B355" s="20" t="s">
-        <v>25</v>
+      <c r="A355" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B355" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="C355" s="9"/>
       <c r="D355" s="10"/>
@@ -11069,11 +11068,11 @@
       <c r="U355" s="10"/>
     </row>
     <row r="356" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A356" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B356" s="20" t="s">
-        <v>27</v>
+      <c r="A356" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B356" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="C356" s="9"/>
       <c r="D356" s="10"/>
@@ -11096,11 +11095,11 @@
       <c r="U356" s="10"/>
     </row>
     <row r="357" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A357" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B357" s="20" t="s">
-        <v>29</v>
+      <c r="A357" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B357" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="C357" s="9"/>
       <c r="D357" s="10"/>
@@ -11123,11 +11122,11 @@
       <c r="U357" s="10"/>
     </row>
     <row r="358" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A358" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B358" s="20" t="s">
-        <v>31</v>
+      <c r="A358" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B358" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="C358" s="9"/>
       <c r="D358" s="10"/>
@@ -11150,11 +11149,11 @@
       <c r="U358" s="10"/>
     </row>
     <row r="359" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A359" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B359" s="20" t="s">
-        <v>33</v>
+      <c r="A359" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B359" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="C359" s="9"/>
       <c r="D359" s="10"/>
@@ -11177,11 +11176,11 @@
       <c r="U359" s="10"/>
     </row>
     <row r="360" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A360" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B360" s="20" t="s">
+      <c r="A360" s="21" t="s">
         <v>35</v>
+      </c>
+      <c r="B360" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="C360" s="9"/>
       <c r="D360" s="10"/>
@@ -11204,11 +11203,11 @@
       <c r="U360" s="10"/>
     </row>
     <row r="361" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A361" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B361" s="20" t="s">
-        <v>37</v>
+      <c r="A361" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B361" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="C361" s="9"/>
       <c r="D361" s="10">
@@ -11239,16 +11238,16 @@
       </c>
     </row>
     <row r="362" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A362" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B362" s="20" t="s">
-        <v>39</v>
+      <c r="A362" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B362" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="C362" s="9"/>
-      <c r="D362" s="12"/>
+      <c r="D362" s="11"/>
       <c r="E362" s="9"/>
-      <c r="F362" s="12"/>
+      <c r="F362" s="11"/>
       <c r="G362" s="10"/>
       <c r="H362" s="10"/>
       <c r="I362" s="9"/>
@@ -11262,8 +11261,8 @@
       <c r="Q362" s="9"/>
       <c r="R362" s="9"/>
       <c r="S362" s="9"/>
-      <c r="T362" s="12"/>
-      <c r="U362" s="12"/>
+      <c r="T362" s="11"/>
+      <c r="U362" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H362" xr:uid="{1A1B5BCE-97D1-4D07-A83C-9326FC7BA5DB}"/>
